--- a/Noyau RH FPE/1. DOCUMENTATION RH-PAIE/4. Autres/Impact des situations administratives sur l'avancement d'échelon.xlsx
+++ b/Noyau RH FPE/1. DOCUMENTATION RH-PAIE/4. Autres/Impact des situations administratives sur l'avancement d'échelon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\balidfs1\onp\ONP\CISIRH\03-BARRI\REFERENTIELS\NOYAU\1-202407XX_24.00.00\8-Informations complémentaires\Divers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\balidfs1\ONP\ONP\CISIRH\03-BARRI\REFERENTIELS\NOYAU\1-20250207_24.10.00\8-Informations complémentaires\Divers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16511089-258A-41E2-8FFF-03E46CC37FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A479BC-366D-4C72-9F3E-50AC88163069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Règles" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Positions!$A$2:$Q$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Positions!$A$2:$Q$386</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sanctions!$A$1:$P$16</definedName>
     <definedName name="REG_001">Règles!$A$11</definedName>
     <definedName name="REG_002">Règles!$A$12</definedName>
@@ -58,12 +58,12 @@
     <definedName name="REG_034">Règles!#REF!</definedName>
     <definedName name="REG_035">Règles!$A$24</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="892">
   <si>
     <t>AVANCEMENT ECHELON</t>
   </si>
@@ -2803,9 +2803,6 @@
     <t>Mise à disposition sortante à titre gratuit au titre d'un mécénat de compétences auprès de certaines personnes morales</t>
   </si>
   <si>
-    <t>2023-03</t>
-  </si>
-  <si>
     <t>Mise à disposition sortante avec remboursement au titre d'un mécénat de compétences auprès de certaines personnes morales</t>
   </si>
   <si>
@@ -2821,7 +2818,17 @@
     <t>24.00.00</t>
   </si>
   <si>
-    <t>2023-67</t>
+    <t>DSP1E</t>
+  </si>
+  <si>
+    <t>Disponibilité à titre provisoire pour raison de santé en attente de l’avis du conseil médical</t>
+  </si>
+  <si>
+    <t>24.10.00</t>
+  </si>
+  <si>
+    <t>2024-58
+2024-85</t>
   </si>
 </sst>
 </file>
@@ -3278,9 +3285,6 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3290,14 +3294,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3307,6 +3320,15 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3335,23 +3357,8 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3701,11 +3708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q385"/>
+  <dimension ref="A1:Q386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3723,18 +3730,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:17" ht="39" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
@@ -3749,13 +3756,13 @@
       <c r="D2" s="58" t="s">
         <v>573</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="77" t="s">
         <v>574</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="58" t="s">
         <v>575</v>
       </c>
@@ -3791,21 +3798,21 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="78" t="s">
         <v>540</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
       <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -3818,21 +3825,21 @@
       <c r="C4" s="59" t="s">
         <v>539</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="79" t="s">
         <v>540</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
       <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3999,48 +4006,46 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="44"/>
     </row>
-    <row r="9" spans="1:17" s="85" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
-        <v>888</v>
-      </c>
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="66" t="s">
         <v>868</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="67" t="s">
         <v>869</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="82">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="68">
         <v>31048</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82" t="s">
-        <v>591</v>
-      </c>
-      <c r="M9" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="63" t="s">
+      <c r="K9" s="68"/>
+      <c r="L9" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="37" t="s">
         <v>682</v>
       </c>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="39" t="s">
-        <v>889</v>
-      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
@@ -4560,21 +4565,21 @@
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="70" t="s">
         <v>541</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="72"/>
       <c r="Q22" s="44"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -4587,21 +4592,21 @@
       <c r="C23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="73" t="s">
         <v>541</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="67"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="75"/>
       <c r="Q23" s="44"/>
     </row>
     <row r="24" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4692,21 +4697,21 @@
       <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="72"/>
       <c r="Q26" s="44"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -4719,21 +4724,21 @@
       <c r="C27" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="73" t="s">
         <v>543</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="67"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
       <c r="Q27" s="44"/>
     </row>
     <row r="28" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4875,21 +4880,21 @@
       <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="70" t="s">
         <v>545</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="70"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="72"/>
       <c r="Q31" s="44"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -4902,21 +4907,21 @@
       <c r="C32" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="73" t="s">
         <v>544</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
       <c r="Q32" s="44"/>
     </row>
     <row r="33" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5673,47 +5678,45 @@
       <c r="Q51" s="44"/>
     </row>
     <row r="52" spans="1:17" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="38" t="s">
+      <c r="B52" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>881</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="57" t="s">
         <v>882</v>
       </c>
-      <c r="E52" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="60">
+      <c r="E52" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="35">
         <v>44924</v>
       </c>
-      <c r="K52" s="60">
+      <c r="K52" s="35">
         <v>47296</v>
       </c>
-      <c r="L52" s="60" t="s">
-        <v>591</v>
-      </c>
-      <c r="M52" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N52" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="63" t="s">
+      <c r="L52" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M52" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="37" t="s">
         <v>682</v>
       </c>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="39" t="s">
-        <v>883</v>
-      </c>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="44"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="59" t="s">
@@ -5725,21 +5728,21 @@
       <c r="C53" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="73" t="s">
         <v>546</v>
       </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="67"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="75"/>
       <c r="Q53" s="44"/>
     </row>
     <row r="54" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6637,47 +6640,45 @@
       <c r="Q75" s="44"/>
     </row>
     <row r="76" spans="1:17" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="B76" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>885</v>
-      </c>
-      <c r="D76" s="61" t="s">
+      <c r="B76" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="32" t="s">
         <v>884</v>
       </c>
-      <c r="E76" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="60">
+      <c r="D76" s="57" t="s">
+        <v>883</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="35">
         <v>44924</v>
       </c>
-      <c r="K76" s="60">
+      <c r="K76" s="35">
         <v>47296</v>
       </c>
-      <c r="L76" s="60" t="s">
-        <v>591</v>
-      </c>
-      <c r="M76" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N76" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="63" t="s">
+      <c r="L76" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M76" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="37" t="s">
         <v>682</v>
       </c>
-      <c r="P76" s="64"/>
-      <c r="Q76" s="39" t="s">
-        <v>883</v>
-      </c>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="44"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="59" t="s">
@@ -6689,21 +6690,21 @@
       <c r="C77" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="65" t="s">
+      <c r="D77" s="73" t="s">
         <v>547</v>
       </c>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
-      <c r="M77" s="66"/>
-      <c r="N77" s="66"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="67"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="75"/>
       <c r="Q77" s="44"/>
     </row>
     <row r="78" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7339,47 +7340,45 @@
       <c r="Q93" s="44"/>
     </row>
     <row r="94" spans="1:17" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="B94" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="38" t="s">
+      <c r="B94" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>885</v>
+      </c>
+      <c r="D94" s="57" t="s">
         <v>886</v>
       </c>
-      <c r="D94" s="61" t="s">
-        <v>887</v>
-      </c>
-      <c r="E94" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="60">
+      <c r="E94" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="35">
         <v>44924</v>
       </c>
-      <c r="K94" s="60">
+      <c r="K94" s="35">
         <v>47296</v>
       </c>
-      <c r="L94" s="60" t="s">
-        <v>591</v>
-      </c>
-      <c r="M94" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N94" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="63" t="s">
+      <c r="L94" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M94" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N94" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="37" t="s">
         <v>682</v>
       </c>
-      <c r="P94" s="64"/>
-      <c r="Q94" s="39" t="s">
-        <v>883</v>
-      </c>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="44"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
@@ -7391,21 +7390,21 @@
       <c r="C95" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D95" s="68" t="s">
+      <c r="D95" s="70" t="s">
         <v>548</v>
       </c>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="69"/>
-      <c r="J95" s="69"/>
-      <c r="K95" s="69"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="69"/>
-      <c r="N95" s="69"/>
-      <c r="O95" s="69"/>
-      <c r="P95" s="70"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71"/>
+      <c r="M95" s="71"/>
+      <c r="N95" s="71"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="72"/>
       <c r="Q95" s="44"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.35">
@@ -7418,21 +7417,21 @@
       <c r="C96" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="65" t="s">
+      <c r="D96" s="73" t="s">
         <v>548</v>
       </c>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="66"/>
-      <c r="M96" s="66"/>
-      <c r="N96" s="66"/>
-      <c r="O96" s="66"/>
-      <c r="P96" s="67"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="74"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="74"/>
+      <c r="P96" s="75"/>
       <c r="Q96" s="44"/>
     </row>
     <row r="97" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7492,21 +7491,21 @@
       <c r="C98" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D98" s="68" t="s">
+      <c r="D98" s="70" t="s">
         <v>549</v>
       </c>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
-      <c r="J98" s="69"/>
-      <c r="K98" s="69"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="69"/>
-      <c r="N98" s="69"/>
-      <c r="O98" s="69"/>
-      <c r="P98" s="70"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="71"/>
+      <c r="M98" s="71"/>
+      <c r="N98" s="71"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="72"/>
       <c r="Q98" s="44"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.35">
@@ -7519,21 +7518,21 @@
       <c r="C99" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D99" s="65" t="s">
+      <c r="D99" s="73" t="s">
         <v>549</v>
       </c>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
-      <c r="L99" s="66"/>
-      <c r="M99" s="66"/>
-      <c r="N99" s="66"/>
-      <c r="O99" s="66"/>
-      <c r="P99" s="67"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="74"/>
+      <c r="L99" s="74"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="74"/>
+      <c r="P99" s="75"/>
       <c r="Q99" s="44"/>
     </row>
     <row r="100" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7831,21 +7830,21 @@
       <c r="C107" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D107" s="68" t="s">
+      <c r="D107" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="69"/>
-      <c r="J107" s="69"/>
-      <c r="K107" s="69"/>
-      <c r="L107" s="69"/>
-      <c r="M107" s="69"/>
-      <c r="N107" s="69"/>
-      <c r="O107" s="69"/>
-      <c r="P107" s="70"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="71"/>
+      <c r="P107" s="72"/>
       <c r="Q107" s="44"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.35">
@@ -7858,21 +7857,21 @@
       <c r="C108" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D108" s="65" t="s">
+      <c r="D108" s="73" t="s">
         <v>551</v>
       </c>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="66"/>
-      <c r="L108" s="66"/>
-      <c r="M108" s="66"/>
-      <c r="N108" s="66"/>
-      <c r="O108" s="66"/>
-      <c r="P108" s="67"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="74"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="74"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
+      <c r="O108" s="74"/>
+      <c r="P108" s="75"/>
       <c r="Q108" s="44"/>
     </row>
     <row r="109" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -8244,21 +8243,21 @@
       <c r="C118" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D118" s="68" t="s">
+      <c r="D118" s="70" t="s">
         <v>552</v>
       </c>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
-      <c r="I118" s="69"/>
-      <c r="J118" s="69"/>
-      <c r="K118" s="69"/>
-      <c r="L118" s="69"/>
-      <c r="M118" s="69"/>
-      <c r="N118" s="69"/>
-      <c r="O118" s="69"/>
-      <c r="P118" s="70"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="71"/>
+      <c r="M118" s="71"/>
+      <c r="N118" s="71"/>
+      <c r="O118" s="71"/>
+      <c r="P118" s="72"/>
       <c r="Q118" s="44"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.35">
@@ -8271,21 +8270,21 @@
       <c r="C119" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D119" s="65" t="s">
+      <c r="D119" s="73" t="s">
         <v>553</v>
       </c>
-      <c r="E119" s="66"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="66"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="66"/>
-      <c r="L119" s="66"/>
-      <c r="M119" s="66"/>
-      <c r="N119" s="66"/>
-      <c r="O119" s="66"/>
-      <c r="P119" s="67"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="74"/>
+      <c r="H119" s="74"/>
+      <c r="I119" s="74"/>
+      <c r="J119" s="74"/>
+      <c r="K119" s="74"/>
+      <c r="L119" s="74"/>
+      <c r="M119" s="74"/>
+      <c r="N119" s="74"/>
+      <c r="O119" s="74"/>
+      <c r="P119" s="75"/>
       <c r="Q119" s="44"/>
     </row>
     <row r="120" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9943,21 +9942,21 @@
       <c r="C161" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D161" s="65" t="s">
+      <c r="D161" s="73" t="s">
         <v>554</v>
       </c>
-      <c r="E161" s="66"/>
-      <c r="F161" s="66"/>
-      <c r="G161" s="66"/>
-      <c r="H161" s="66"/>
-      <c r="I161" s="66"/>
-      <c r="J161" s="66"/>
-      <c r="K161" s="66"/>
-      <c r="L161" s="66"/>
-      <c r="M161" s="66"/>
-      <c r="N161" s="66"/>
-      <c r="O161" s="66"/>
-      <c r="P161" s="67"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="74"/>
+      <c r="I161" s="74"/>
+      <c r="J161" s="74"/>
+      <c r="K161" s="74"/>
+      <c r="L161" s="74"/>
+      <c r="M161" s="74"/>
+      <c r="N161" s="74"/>
+      <c r="O161" s="74"/>
+      <c r="P161" s="75"/>
       <c r="Q161" s="44"/>
     </row>
     <row r="162" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10485,21 +10484,21 @@
       <c r="C175" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D175" s="65" t="s">
+      <c r="D175" s="73" t="s">
         <v>555</v>
       </c>
-      <c r="E175" s="66"/>
-      <c r="F175" s="66"/>
-      <c r="G175" s="66"/>
-      <c r="H175" s="66"/>
-      <c r="I175" s="66"/>
-      <c r="J175" s="66"/>
-      <c r="K175" s="66"/>
-      <c r="L175" s="66"/>
-      <c r="M175" s="66"/>
-      <c r="N175" s="66"/>
-      <c r="O175" s="66"/>
-      <c r="P175" s="67"/>
+      <c r="E175" s="74"/>
+      <c r="F175" s="74"/>
+      <c r="G175" s="74"/>
+      <c r="H175" s="74"/>
+      <c r="I175" s="74"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="74"/>
+      <c r="L175" s="74"/>
+      <c r="M175" s="74"/>
+      <c r="N175" s="74"/>
+      <c r="O175" s="74"/>
+      <c r="P175" s="75"/>
       <c r="Q175" s="44"/>
     </row>
     <row r="176" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10986,21 +10985,21 @@
       <c r="C188" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D188" s="68" t="s">
+      <c r="D188" s="70" t="s">
         <v>556</v>
       </c>
-      <c r="E188" s="69"/>
-      <c r="F188" s="69"/>
-      <c r="G188" s="69"/>
-      <c r="H188" s="69"/>
-      <c r="I188" s="69"/>
-      <c r="J188" s="69"/>
-      <c r="K188" s="69"/>
-      <c r="L188" s="69"/>
-      <c r="M188" s="69"/>
-      <c r="N188" s="69"/>
-      <c r="O188" s="69"/>
-      <c r="P188" s="70"/>
+      <c r="E188" s="71"/>
+      <c r="F188" s="71"/>
+      <c r="G188" s="71"/>
+      <c r="H188" s="71"/>
+      <c r="I188" s="71"/>
+      <c r="J188" s="71"/>
+      <c r="K188" s="71"/>
+      <c r="L188" s="71"/>
+      <c r="M188" s="71"/>
+      <c r="N188" s="71"/>
+      <c r="O188" s="71"/>
+      <c r="P188" s="72"/>
       <c r="Q188" s="44"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.35">
@@ -11013,21 +11012,21 @@
       <c r="C189" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="D189" s="65" t="s">
+      <c r="D189" s="73" t="s">
         <v>556</v>
       </c>
-      <c r="E189" s="66"/>
-      <c r="F189" s="66"/>
-      <c r="G189" s="66"/>
-      <c r="H189" s="66"/>
-      <c r="I189" s="66"/>
-      <c r="J189" s="66"/>
-      <c r="K189" s="66"/>
-      <c r="L189" s="66"/>
-      <c r="M189" s="66"/>
-      <c r="N189" s="66"/>
-      <c r="O189" s="66"/>
-      <c r="P189" s="67"/>
+      <c r="E189" s="74"/>
+      <c r="F189" s="74"/>
+      <c r="G189" s="74"/>
+      <c r="H189" s="74"/>
+      <c r="I189" s="74"/>
+      <c r="J189" s="74"/>
+      <c r="K189" s="74"/>
+      <c r="L189" s="74"/>
+      <c r="M189" s="74"/>
+      <c r="N189" s="74"/>
+      <c r="O189" s="74"/>
+      <c r="P189" s="75"/>
       <c r="Q189" s="44"/>
     </row>
     <row r="190" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11341,21 +11340,21 @@
       <c r="C197" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D197" s="68" t="s">
+      <c r="D197" s="70" t="s">
         <v>557</v>
       </c>
-      <c r="E197" s="69"/>
-      <c r="F197" s="69"/>
-      <c r="G197" s="69"/>
-      <c r="H197" s="69"/>
-      <c r="I197" s="69"/>
-      <c r="J197" s="69"/>
-      <c r="K197" s="69"/>
-      <c r="L197" s="69"/>
-      <c r="M197" s="69"/>
-      <c r="N197" s="69"/>
-      <c r="O197" s="69"/>
-      <c r="P197" s="70"/>
+      <c r="E197" s="71"/>
+      <c r="F197" s="71"/>
+      <c r="G197" s="71"/>
+      <c r="H197" s="71"/>
+      <c r="I197" s="71"/>
+      <c r="J197" s="71"/>
+      <c r="K197" s="71"/>
+      <c r="L197" s="71"/>
+      <c r="M197" s="71"/>
+      <c r="N197" s="71"/>
+      <c r="O197" s="71"/>
+      <c r="P197" s="72"/>
       <c r="Q197" s="44"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.35">
@@ -11368,21 +11367,21 @@
       <c r="C198" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="D198" s="65" t="s">
+      <c r="D198" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="E198" s="66"/>
-      <c r="F198" s="66"/>
-      <c r="G198" s="66"/>
-      <c r="H198" s="66"/>
-      <c r="I198" s="66"/>
-      <c r="J198" s="66"/>
-      <c r="K198" s="66"/>
-      <c r="L198" s="66"/>
-      <c r="M198" s="66"/>
-      <c r="N198" s="66"/>
-      <c r="O198" s="66"/>
-      <c r="P198" s="67"/>
+      <c r="E198" s="74"/>
+      <c r="F198" s="74"/>
+      <c r="G198" s="74"/>
+      <c r="H198" s="74"/>
+      <c r="I198" s="74"/>
+      <c r="J198" s="74"/>
+      <c r="K198" s="74"/>
+      <c r="L198" s="74"/>
+      <c r="M198" s="74"/>
+      <c r="N198" s="74"/>
+      <c r="O198" s="74"/>
+      <c r="P198" s="75"/>
       <c r="Q198" s="44"/>
     </row>
     <row r="199" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11434,21 +11433,21 @@
       <c r="C200" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="D200" s="65" t="s">
+      <c r="D200" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="E200" s="66"/>
-      <c r="F200" s="66"/>
-      <c r="G200" s="66"/>
-      <c r="H200" s="66"/>
-      <c r="I200" s="66"/>
-      <c r="J200" s="66"/>
-      <c r="K200" s="66"/>
-      <c r="L200" s="66"/>
-      <c r="M200" s="66"/>
-      <c r="N200" s="66"/>
-      <c r="O200" s="66"/>
-      <c r="P200" s="67"/>
+      <c r="E200" s="74"/>
+      <c r="F200" s="74"/>
+      <c r="G200" s="74"/>
+      <c r="H200" s="74"/>
+      <c r="I200" s="74"/>
+      <c r="J200" s="74"/>
+      <c r="K200" s="74"/>
+      <c r="L200" s="74"/>
+      <c r="M200" s="74"/>
+      <c r="N200" s="74"/>
+      <c r="O200" s="74"/>
+      <c r="P200" s="75"/>
       <c r="Q200" s="44"/>
     </row>
     <row r="201" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11500,21 +11499,21 @@
       <c r="C202" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="D202" s="65" t="s">
+      <c r="D202" s="73" t="s">
         <v>558</v>
       </c>
-      <c r="E202" s="66"/>
-      <c r="F202" s="66"/>
-      <c r="G202" s="66"/>
-      <c r="H202" s="66"/>
-      <c r="I202" s="66"/>
-      <c r="J202" s="66"/>
-      <c r="K202" s="66"/>
-      <c r="L202" s="66"/>
-      <c r="M202" s="66"/>
-      <c r="N202" s="66"/>
-      <c r="O202" s="66"/>
-      <c r="P202" s="67"/>
+      <c r="E202" s="74"/>
+      <c r="F202" s="74"/>
+      <c r="G202" s="74"/>
+      <c r="H202" s="74"/>
+      <c r="I202" s="74"/>
+      <c r="J202" s="74"/>
+      <c r="K202" s="74"/>
+      <c r="L202" s="74"/>
+      <c r="M202" s="74"/>
+      <c r="N202" s="74"/>
+      <c r="O202" s="74"/>
+      <c r="P202" s="75"/>
       <c r="Q202" s="44"/>
     </row>
     <row r="203" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -11937,21 +11936,21 @@
       <c r="C213" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D213" s="68" t="s">
+      <c r="D213" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="E213" s="69"/>
-      <c r="F213" s="69"/>
-      <c r="G213" s="69"/>
-      <c r="H213" s="69"/>
-      <c r="I213" s="69"/>
-      <c r="J213" s="69"/>
-      <c r="K213" s="69"/>
-      <c r="L213" s="69"/>
-      <c r="M213" s="69"/>
-      <c r="N213" s="69"/>
-      <c r="O213" s="69"/>
-      <c r="P213" s="70"/>
+      <c r="E213" s="71"/>
+      <c r="F213" s="71"/>
+      <c r="G213" s="71"/>
+      <c r="H213" s="71"/>
+      <c r="I213" s="71"/>
+      <c r="J213" s="71"/>
+      <c r="K213" s="71"/>
+      <c r="L213" s="71"/>
+      <c r="M213" s="71"/>
+      <c r="N213" s="71"/>
+      <c r="O213" s="71"/>
+      <c r="P213" s="72"/>
       <c r="Q213" s="44"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.35">
@@ -11964,21 +11963,21 @@
       <c r="C214" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="D214" s="65" t="s">
+      <c r="D214" s="73" t="s">
         <v>560</v>
       </c>
-      <c r="E214" s="66"/>
-      <c r="F214" s="66"/>
-      <c r="G214" s="66"/>
-      <c r="H214" s="66"/>
-      <c r="I214" s="66"/>
-      <c r="J214" s="66"/>
-      <c r="K214" s="66"/>
-      <c r="L214" s="66"/>
-      <c r="M214" s="66"/>
-      <c r="N214" s="66"/>
-      <c r="O214" s="66"/>
-      <c r="P214" s="67"/>
+      <c r="E214" s="74"/>
+      <c r="F214" s="74"/>
+      <c r="G214" s="74"/>
+      <c r="H214" s="74"/>
+      <c r="I214" s="74"/>
+      <c r="J214" s="74"/>
+      <c r="K214" s="74"/>
+      <c r="L214" s="74"/>
+      <c r="M214" s="74"/>
+      <c r="N214" s="74"/>
+      <c r="O214" s="74"/>
+      <c r="P214" s="75"/>
       <c r="Q214" s="44"/>
     </row>
     <row r="215" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12483,77 +12482,79 @@
       </c>
       <c r="Q226" s="44"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A227" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B227" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227" s="59" t="s">
+    <row r="227" spans="1:17" s="64" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="46" t="s">
+        <v>890</v>
+      </c>
+      <c r="B227" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="38" t="s">
+        <v>888</v>
+      </c>
+      <c r="D227" s="65" t="s">
+        <v>889</v>
+      </c>
+      <c r="E227" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="38"/>
+      <c r="G227" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H227" s="38"/>
+      <c r="I227" s="38"/>
+      <c r="J227" s="60">
+        <v>45473</v>
+      </c>
+      <c r="K227" s="60"/>
+      <c r="L227" s="60" t="s">
+        <v>591</v>
+      </c>
+      <c r="M227" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N227" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="O227" s="62" t="s">
+        <v>695</v>
+      </c>
+      <c r="P227" s="63"/>
+      <c r="Q227" s="85" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A228" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="D227" s="65" t="s">
+      <c r="D228" s="73" t="s">
         <v>561</v>
       </c>
-      <c r="E227" s="66"/>
-      <c r="F227" s="66"/>
-      <c r="G227" s="66"/>
-      <c r="H227" s="66"/>
-      <c r="I227" s="66"/>
-      <c r="J227" s="66"/>
-      <c r="K227" s="66"/>
-      <c r="L227" s="66"/>
-      <c r="M227" s="66"/>
-      <c r="N227" s="66"/>
-      <c r="O227" s="66"/>
-      <c r="P227" s="67"/>
-      <c r="Q227" s="44"/>
-    </row>
-    <row r="228" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B228" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="E228" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F228" s="32"/>
-      <c r="G228" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H228" s="32"/>
-      <c r="I228" s="32"/>
-      <c r="J228" s="35">
-        <v>1</v>
-      </c>
-      <c r="K228" s="35"/>
-      <c r="L228" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M228" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N228" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O228" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P228" s="12"/>
+      <c r="E228" s="74"/>
+      <c r="F228" s="74"/>
+      <c r="G228" s="74"/>
+      <c r="H228" s="74"/>
+      <c r="I228" s="74"/>
+      <c r="J228" s="74"/>
+      <c r="K228" s="74"/>
+      <c r="L228" s="74"/>
+      <c r="M228" s="74"/>
+      <c r="N228" s="74"/>
+      <c r="O228" s="74"/>
+      <c r="P228" s="75"/>
       <c r="Q228" s="44"/>
     </row>
     <row r="229" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B229" s="33" t="s">
         <v>3</v>
@@ -12578,32 +12579,32 @@
       </c>
       <c r="K229" s="35"/>
       <c r="L229" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M229" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N229" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O229" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P229" s="12"/>
       <c r="Q229" s="44"/>
     </row>
     <row r="230" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="33" t="s">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="B230" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E230" s="32" t="s">
         <v>6</v>
@@ -12619,23 +12620,23 @@
       </c>
       <c r="K230" s="35"/>
       <c r="L230" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M230" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N230" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O230" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P230" s="12"/>
       <c r="Q230" s="44"/>
     </row>
     <row r="231" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B231" s="33" t="s">
         <v>3</v>
@@ -12660,32 +12661,32 @@
       </c>
       <c r="K231" s="35"/>
       <c r="L231" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M231" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N231" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O231" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P231" s="12"/>
       <c r="Q231" s="44"/>
     </row>
     <row r="232" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="33" t="s">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="B232" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E232" s="32" t="s">
         <v>6</v>
@@ -12701,25 +12702,23 @@
       </c>
       <c r="K232" s="35"/>
       <c r="L232" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M232" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N232" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O232" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P232" s="13" t="s">
-        <v>596</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="P232" s="12"/>
       <c r="Q232" s="44"/>
     </row>
     <row r="233" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B233" s="33" t="s">
         <v>3</v>
@@ -12744,16 +12743,16 @@
       </c>
       <c r="K233" s="35"/>
       <c r="L233" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M233" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N233" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O233" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P233" s="13" t="s">
         <v>596</v>
@@ -12762,22 +12761,24 @@
     </row>
     <row r="234" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="33" t="s">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="B234" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E234" s="32" t="s">
         <v>6</v>
       </c>
       <c r="F234" s="32"/>
-      <c r="G234" s="32"/>
+      <c r="G234" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="H234" s="32"/>
       <c r="I234" s="32"/>
       <c r="J234" s="35">
@@ -12785,16 +12786,16 @@
       </c>
       <c r="K234" s="35"/>
       <c r="L234" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M234" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N234" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O234" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P234" s="13" t="s">
         <v>596</v>
@@ -12809,10 +12810,10 @@
         <v>3</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E235" s="32" t="s">
         <v>6</v>
@@ -12844,16 +12845,16 @@
     </row>
     <row r="236" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="33" t="s">
-        <v>848</v>
+        <v>30</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E236" s="32" t="s">
         <v>6</v>
@@ -12865,9 +12866,7 @@
       <c r="J236" s="35">
         <v>1</v>
       </c>
-      <c r="K236" s="35">
-        <v>43609</v>
-      </c>
+      <c r="K236" s="35"/>
       <c r="L236" s="35" t="s">
         <v>591</v>
       </c>
@@ -12887,28 +12886,30 @@
     </row>
     <row r="237" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="33" t="s">
-        <v>30</v>
+        <v>848</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E237" s="32"/>
+        <v>331</v>
+      </c>
+      <c r="E237" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="F237" s="32"/>
-      <c r="G237" s="32" t="s">
-        <v>66</v>
-      </c>
+      <c r="G237" s="32"/>
       <c r="H237" s="32"/>
       <c r="I237" s="32"/>
       <c r="J237" s="35">
         <v>1</v>
       </c>
-      <c r="K237" s="35"/>
+      <c r="K237" s="35">
+        <v>43609</v>
+      </c>
       <c r="L237" s="35" t="s">
         <v>591</v>
       </c>
@@ -12928,28 +12929,26 @@
     </row>
     <row r="238" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="33" t="s">
-        <v>702</v>
+        <v>30</v>
       </c>
       <c r="B238" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>760</v>
+        <v>332</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="E238" s="32" t="s">
-        <v>6</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E238" s="32"/>
       <c r="F238" s="32"/>
       <c r="G238" s="32" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H238" s="32"/>
       <c r="I238" s="32"/>
       <c r="J238" s="35">
-        <v>43101</v>
+        <v>1</v>
       </c>
       <c r="K238" s="35"/>
       <c r="L238" s="35" t="s">
@@ -12971,7 +12970,7 @@
     </row>
     <row r="239" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="33" t="s">
-        <v>770</v>
+        <v>702</v>
       </c>
       <c r="B239" s="33" t="s">
         <v>3</v>
@@ -12996,95 +12995,95 @@
       </c>
       <c r="K239" s="35"/>
       <c r="L239" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M239" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N239" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O239" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P239" s="13" t="s">
         <v>596</v>
       </c>
       <c r="Q239" s="44"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A240" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B240" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" s="59" t="s">
+    <row r="240" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="B240" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="E240" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" s="32"/>
+      <c r="G240" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="32"/>
+      <c r="I240" s="32"/>
+      <c r="J240" s="35">
+        <v>43101</v>
+      </c>
+      <c r="K240" s="35"/>
+      <c r="L240" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="M240" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N240" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O240" s="37" t="s">
+        <v>682</v>
+      </c>
+      <c r="P240" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q240" s="44"/>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A241" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B241" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="D240" s="65" t="s">
+      <c r="D241" s="73" t="s">
         <v>562</v>
       </c>
-      <c r="E240" s="66"/>
-      <c r="F240" s="66"/>
-      <c r="G240" s="66"/>
-      <c r="H240" s="66"/>
-      <c r="I240" s="66"/>
-      <c r="J240" s="66"/>
-      <c r="K240" s="66"/>
-      <c r="L240" s="66"/>
-      <c r="M240" s="66"/>
-      <c r="N240" s="66"/>
-      <c r="O240" s="66"/>
-      <c r="P240" s="67"/>
-      <c r="Q240" s="44"/>
-    </row>
-    <row r="241" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B241" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C241" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E241" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F241" s="32"/>
-      <c r="G241" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H241" s="32"/>
-      <c r="I241" s="32"/>
-      <c r="J241" s="35">
-        <v>1</v>
-      </c>
-      <c r="K241" s="35"/>
-      <c r="L241" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M241" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N241" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O241" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P241" s="13" t="s">
-        <v>596</v>
-      </c>
+      <c r="E241" s="74"/>
+      <c r="F241" s="74"/>
+      <c r="G241" s="74"/>
+      <c r="H241" s="74"/>
+      <c r="I241" s="74"/>
+      <c r="J241" s="74"/>
+      <c r="K241" s="74"/>
+      <c r="L241" s="74"/>
+      <c r="M241" s="74"/>
+      <c r="N241" s="74"/>
+      <c r="O241" s="74"/>
+      <c r="P241" s="75"/>
       <c r="Q241" s="44"/>
     </row>
     <row r="242" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B242" s="33" t="s">
         <v>3</v>
@@ -13109,16 +13108,16 @@
       </c>
       <c r="K242" s="35"/>
       <c r="L242" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M242" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N242" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O242" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P242" s="13" t="s">
         <v>596</v>
@@ -13127,16 +13126,16 @@
     </row>
     <row r="243" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="33" t="s">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="B243" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E243" s="32" t="s">
         <v>6</v>
@@ -13152,16 +13151,16 @@
       </c>
       <c r="K243" s="35"/>
       <c r="L243" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M243" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N243" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O243" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P243" s="13" t="s">
         <v>596</v>
@@ -13176,10 +13175,10 @@
         <v>3</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E244" s="32" t="s">
         <v>6</v>
@@ -13219,10 +13218,10 @@
         <v>3</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E245" s="32" t="s">
         <v>6</v>
@@ -13256,7 +13255,7 @@
     </row>
     <row r="246" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B246" s="33" t="s">
         <v>3</v>
@@ -13281,16 +13280,16 @@
       </c>
       <c r="K246" s="35"/>
       <c r="L246" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M246" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N246" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O246" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P246" s="13" t="s">
         <v>596</v>
@@ -13299,16 +13298,16 @@
     </row>
     <row r="247" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="33" t="s">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="B247" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E247" s="32" t="s">
         <v>6</v>
@@ -13324,16 +13323,16 @@
       </c>
       <c r="K247" s="35"/>
       <c r="L247" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M247" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N247" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O247" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P247" s="13" t="s">
         <v>596</v>
@@ -13342,7 +13341,7 @@
     </row>
     <row r="248" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B248" s="33" t="s">
         <v>3</v>
@@ -13367,16 +13366,16 @@
       </c>
       <c r="K248" s="35"/>
       <c r="L248" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M248" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N248" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O248" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P248" s="13" t="s">
         <v>596</v>
@@ -13385,16 +13384,16 @@
     </row>
     <row r="249" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="33" t="s">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="B249" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E249" s="32" t="s">
         <v>6</v>
@@ -13410,16 +13409,16 @@
       </c>
       <c r="K249" s="35"/>
       <c r="L249" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M249" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N249" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O249" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P249" s="13" t="s">
         <v>596</v>
@@ -13428,7 +13427,7 @@
     </row>
     <row r="250" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B250" s="33" t="s">
         <v>3</v>
@@ -13453,16 +13452,16 @@
       </c>
       <c r="K250" s="35"/>
       <c r="L250" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M250" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N250" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O250" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P250" s="13" t="s">
         <v>596</v>
@@ -13471,16 +13470,16 @@
     </row>
     <row r="251" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="33" t="s">
-        <v>828</v>
+        <v>770</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E251" s="32" t="s">
         <v>6</v>
@@ -13494,20 +13493,18 @@
       <c r="J251" s="35">
         <v>1</v>
       </c>
-      <c r="K251" s="35">
-        <v>44779</v>
-      </c>
+      <c r="K251" s="35"/>
       <c r="L251" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M251" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N251" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O251" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P251" s="13" t="s">
         <v>596</v>
@@ -13543,16 +13540,16 @@
         <v>44779</v>
       </c>
       <c r="L252" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M252" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N252" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O252" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P252" s="13" t="s">
         <v>596</v>
@@ -13561,16 +13558,16 @@
     </row>
     <row r="253" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="33" t="s">
-        <v>30</v>
+        <v>828</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E253" s="32" t="s">
         <v>6</v>
@@ -13584,18 +13581,20 @@
       <c r="J253" s="35">
         <v>1</v>
       </c>
-      <c r="K253" s="35"/>
+      <c r="K253" s="35">
+        <v>44779</v>
+      </c>
       <c r="L253" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M253" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N253" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O253" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P253" s="13" t="s">
         <v>596</v>
@@ -13604,7 +13603,7 @@
     </row>
     <row r="254" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B254" s="33" t="s">
         <v>3</v>
@@ -13629,16 +13628,16 @@
       </c>
       <c r="K254" s="35"/>
       <c r="L254" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M254" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N254" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O254" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P254" s="13" t="s">
         <v>596</v>
@@ -13647,16 +13646,16 @@
     </row>
     <row r="255" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="33" t="s">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="B255" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E255" s="32" t="s">
         <v>6</v>
@@ -13672,16 +13671,16 @@
       </c>
       <c r="K255" s="35"/>
       <c r="L255" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M255" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N255" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O255" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P255" s="13" t="s">
         <v>596</v>
@@ -13690,7 +13689,7 @@
     </row>
     <row r="256" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B256" s="33" t="s">
         <v>3</v>
@@ -13715,16 +13714,16 @@
       </c>
       <c r="K256" s="35"/>
       <c r="L256" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M256" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N256" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O256" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P256" s="13" t="s">
         <v>596</v>
@@ -13733,16 +13732,16 @@
     </row>
     <row r="257" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="33" t="s">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="B257" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E257" s="32" t="s">
         <v>6</v>
@@ -13758,16 +13757,16 @@
       </c>
       <c r="K257" s="35"/>
       <c r="L257" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M257" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N257" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O257" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P257" s="13" t="s">
         <v>596</v>
@@ -13776,7 +13775,7 @@
     </row>
     <row r="258" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="33" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="B258" s="33" t="s">
         <v>3</v>
@@ -13801,16 +13800,16 @@
       </c>
       <c r="K258" s="35"/>
       <c r="L258" s="35" t="s">
-        <v>773</v>
+        <v>591</v>
       </c>
       <c r="M258" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N258" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O258" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P258" s="13" t="s">
         <v>596</v>
@@ -13819,16 +13818,16 @@
     </row>
     <row r="259" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="33" t="s">
-        <v>828</v>
+        <v>770</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>805</v>
+        <v>352</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>827</v>
+        <v>353</v>
       </c>
       <c r="E259" s="32" t="s">
         <v>6</v>
@@ -13840,11 +13839,11 @@
       <c r="H259" s="32"/>
       <c r="I259" s="32"/>
       <c r="J259" s="35">
-        <v>43685</v>
+        <v>1</v>
       </c>
       <c r="K259" s="35"/>
       <c r="L259" s="35" t="s">
-        <v>591</v>
+        <v>773</v>
       </c>
       <c r="M259" s="32" t="s">
         <v>9</v>
@@ -13868,10 +13867,10 @@
         <v>10</v>
       </c>
       <c r="C260" s="32" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="E260" s="32" t="s">
         <v>6</v>
@@ -13890,123 +13889,117 @@
         <v>591</v>
       </c>
       <c r="M260" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N260" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O260" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P260" s="13" t="s">
         <v>596</v>
       </c>
       <c r="Q260" s="44"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A261" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" s="3" t="s">
+    <row r="261" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="33" t="s">
+        <v>828</v>
+      </c>
+      <c r="B261" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="E261" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" s="32"/>
+      <c r="G261" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H261" s="32"/>
+      <c r="I261" s="32"/>
+      <c r="J261" s="35">
+        <v>43685</v>
+      </c>
+      <c r="K261" s="35"/>
+      <c r="L261" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M261" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N261" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O261" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="P261" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q261" s="44"/>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A262" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D261" s="68" t="s">
+      <c r="D262" s="70" t="s">
         <v>563</v>
       </c>
-      <c r="E261" s="69"/>
-      <c r="F261" s="69"/>
-      <c r="G261" s="69"/>
-      <c r="H261" s="69"/>
-      <c r="I261" s="69"/>
-      <c r="J261" s="69"/>
-      <c r="K261" s="69"/>
-      <c r="L261" s="69"/>
-      <c r="M261" s="69"/>
-      <c r="N261" s="69"/>
-      <c r="O261" s="69"/>
-      <c r="P261" s="70"/>
-      <c r="Q261" s="44"/>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A262" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B262" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C262" s="59" t="s">
+      <c r="E262" s="71"/>
+      <c r="F262" s="71"/>
+      <c r="G262" s="71"/>
+      <c r="H262" s="71"/>
+      <c r="I262" s="71"/>
+      <c r="J262" s="71"/>
+      <c r="K262" s="71"/>
+      <c r="L262" s="71"/>
+      <c r="M262" s="71"/>
+      <c r="N262" s="71"/>
+      <c r="O262" s="71"/>
+      <c r="P262" s="72"/>
+      <c r="Q262" s="44"/>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A263" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B263" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="D262" s="65" t="s">
+      <c r="D263" s="73" t="s">
         <v>563</v>
       </c>
-      <c r="E262" s="66"/>
-      <c r="F262" s="66"/>
-      <c r="G262" s="66"/>
-      <c r="H262" s="66"/>
-      <c r="I262" s="66"/>
-      <c r="J262" s="66"/>
-      <c r="K262" s="66"/>
-      <c r="L262" s="66"/>
-      <c r="M262" s="66"/>
-      <c r="N262" s="66"/>
-      <c r="O262" s="66"/>
-      <c r="P262" s="67"/>
-      <c r="Q262" s="44"/>
-    </row>
-    <row r="263" spans="1:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B263" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C263" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="D263" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E263" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F263" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G263" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H263" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I263" s="32"/>
-      <c r="J263" s="35">
-        <v>1</v>
-      </c>
-      <c r="K263" s="35">
-        <v>41182</v>
-      </c>
-      <c r="L263" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M263" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N263" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O263" s="37" t="s">
-        <v>696</v>
-      </c>
-      <c r="P263" s="13" t="s">
-        <v>610</v>
-      </c>
+      <c r="E263" s="74"/>
+      <c r="F263" s="74"/>
+      <c r="G263" s="74"/>
+      <c r="H263" s="74"/>
+      <c r="I263" s="74"/>
+      <c r="J263" s="74"/>
+      <c r="K263" s="74"/>
+      <c r="L263" s="74"/>
+      <c r="M263" s="74"/>
+      <c r="N263" s="74"/>
+      <c r="O263" s="74"/>
+      <c r="P263" s="75"/>
       <c r="Q263" s="44"/>
     </row>
-    <row r="264" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="33" t="s">
         <v>30</v>
       </c>
@@ -14019,17 +14012,25 @@
       <c r="D264" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="E264" s="32"/>
-      <c r="F264" s="32"/>
-      <c r="G264" s="32"/>
+      <c r="E264" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F264" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G264" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="H264" s="32" t="s">
         <v>9</v>
       </c>
       <c r="I264" s="32"/>
       <c r="J264" s="35">
-        <v>41183</v>
-      </c>
-      <c r="K264" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="K264" s="35">
+        <v>41182</v>
+      </c>
       <c r="L264" s="35" t="s">
         <v>591</v>
       </c>
@@ -14043,11 +14044,11 @@
         <v>696</v>
       </c>
       <c r="P264" s="13" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="Q264" s="44"/>
     </row>
-    <row r="265" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="33" t="s">
         <v>30</v>
       </c>
@@ -14055,26 +14056,20 @@
         <v>3</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="E265" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F265" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G265" s="32" t="s">
-        <v>8</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="E265" s="32"/>
+      <c r="F265" s="32"/>
+      <c r="G265" s="32"/>
       <c r="H265" s="32" t="s">
         <v>9</v>
       </c>
       <c r="I265" s="32"/>
       <c r="J265" s="35">
-        <v>1</v>
+        <v>41183</v>
       </c>
       <c r="K265" s="35"/>
       <c r="L265" s="35" t="s">
@@ -14087,14 +14082,14 @@
         <v>9</v>
       </c>
       <c r="O265" s="37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P265" s="13" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q265" s="44"/>
     </row>
-    <row r="266" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="33" t="s">
         <v>30</v>
       </c>
@@ -14102,10 +14097,10 @@
         <v>3</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E266" s="32" t="s">
         <v>6</v>
@@ -14141,7 +14136,7 @@
       </c>
       <c r="Q266" s="44"/>
     </row>
-    <row r="267" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="33" t="s">
         <v>30</v>
       </c>
@@ -14149,10 +14144,10 @@
         <v>3</v>
       </c>
       <c r="C267" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E267" s="32" t="s">
         <v>6</v>
@@ -14188,7 +14183,7 @@
       </c>
       <c r="Q267" s="44"/>
     </row>
-    <row r="268" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="33" t="s">
         <v>30</v>
       </c>
@@ -14196,10 +14191,10 @@
         <v>3</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E268" s="32" t="s">
         <v>6</v>
@@ -14217,9 +14212,7 @@
       <c r="J268" s="35">
         <v>1</v>
       </c>
-      <c r="K268" s="35">
-        <v>41182</v>
-      </c>
+      <c r="K268" s="35"/>
       <c r="L268" s="35" t="s">
         <v>591</v>
       </c>
@@ -14230,14 +14223,14 @@
         <v>9</v>
       </c>
       <c r="O268" s="37" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P268" s="13" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="Q268" s="44"/>
     </row>
-    <row r="269" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="33" t="s">
         <v>30</v>
       </c>
@@ -14250,17 +14243,25 @@
       <c r="D269" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E269" s="32"/>
-      <c r="F269" s="32"/>
-      <c r="G269" s="32"/>
+      <c r="E269" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G269" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="H269" s="32" t="s">
         <v>9</v>
       </c>
       <c r="I269" s="32"/>
       <c r="J269" s="35">
-        <v>41183</v>
-      </c>
-      <c r="K269" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="K269" s="35">
+        <v>41182</v>
+      </c>
       <c r="L269" s="35" t="s">
         <v>591</v>
       </c>
@@ -14274,11 +14275,11 @@
         <v>696</v>
       </c>
       <c r="P269" s="13" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="Q269" s="44"/>
     </row>
-    <row r="270" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="33" t="s">
         <v>30</v>
       </c>
@@ -14286,26 +14287,20 @@
         <v>3</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E270" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F270" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G270" s="32" t="s">
-        <v>8</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="E270" s="32"/>
+      <c r="F270" s="32"/>
+      <c r="G270" s="32"/>
       <c r="H270" s="32" t="s">
         <v>9</v>
       </c>
       <c r="I270" s="32"/>
       <c r="J270" s="35">
-        <v>1</v>
+        <v>41183</v>
       </c>
       <c r="K270" s="35"/>
       <c r="L270" s="35" t="s">
@@ -14318,32 +14313,38 @@
         <v>9</v>
       </c>
       <c r="O270" s="37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P270" s="13" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q270" s="44"/>
     </row>
     <row r="271" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="33" t="s">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="B271" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>747</v>
+        <v>366</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="E271" s="32"/>
-      <c r="F271" s="32"/>
+        <v>367</v>
+      </c>
+      <c r="E271" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F271" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="G271" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H271" s="32"/>
+      <c r="H271" s="32" t="s">
+        <v>9</v>
+      </c>
       <c r="I271" s="32"/>
       <c r="J271" s="35">
         <v>1</v>
@@ -14366,26 +14367,26 @@
       </c>
       <c r="Q271" s="44"/>
     </row>
-    <row r="272" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="33" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="B272" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E272" s="32"/>
       <c r="F272" s="32"/>
-      <c r="G272" s="32"/>
+      <c r="G272" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="H272" s="32"/>
-      <c r="I272" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="I272" s="32"/>
       <c r="J272" s="35">
         <v>1</v>
       </c>
@@ -14407,7 +14408,7 @@
       </c>
       <c r="Q272" s="44"/>
     </row>
-    <row r="273" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="33" t="s">
         <v>722</v>
       </c>
@@ -14415,10 +14416,10 @@
         <v>3</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E273" s="32"/>
       <c r="F273" s="32"/>
@@ -14441,14 +14442,14 @@
         <v>9</v>
       </c>
       <c r="O273" s="37" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P273" s="13" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="Q273" s="44"/>
     </row>
-    <row r="274" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="33" t="s">
         <v>722</v>
       </c>
@@ -14456,10 +14457,10 @@
         <v>3</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E274" s="32"/>
       <c r="F274" s="32"/>
@@ -14485,11 +14486,11 @@
         <v>696</v>
       </c>
       <c r="P274" s="13" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="Q274" s="44"/>
     </row>
-    <row r="275" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="33" t="s">
         <v>722</v>
       </c>
@@ -14497,10 +14498,10 @@
         <v>3</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E275" s="32"/>
       <c r="F275" s="32"/>
@@ -14523,39 +14524,35 @@
         <v>9</v>
       </c>
       <c r="O275" s="37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P275" s="13" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q275" s="44"/>
     </row>
-    <row r="276" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="33" t="s">
-        <v>796</v>
+        <v>722</v>
       </c>
       <c r="B276" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="E276" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F276" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G276" s="32" t="s">
-        <v>8</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="E276" s="32"/>
+      <c r="F276" s="32"/>
+      <c r="G276" s="32"/>
       <c r="H276" s="32"/>
-      <c r="I276" s="32"/>
+      <c r="I276" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="J276" s="35">
-        <v>43685</v>
+        <v>1</v>
       </c>
       <c r="K276" s="35"/>
       <c r="L276" s="35" t="s">
@@ -14568,12 +14565,14 @@
         <v>9</v>
       </c>
       <c r="O276" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P276" s="13"/>
+        <v>697</v>
+      </c>
+      <c r="P276" s="13" t="s">
+        <v>596</v>
+      </c>
       <c r="Q276" s="44"/>
     </row>
-    <row r="277" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="33" t="s">
         <v>796</v>
       </c>
@@ -14581,10 +14580,10 @@
         <v>3</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E277" s="32" t="s">
         <v>6</v>
@@ -14608,15 +14607,15 @@
         <v>9</v>
       </c>
       <c r="N277" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O277" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P277" s="13"/>
       <c r="Q277" s="44"/>
     </row>
-    <row r="278" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="33" t="s">
         <v>796</v>
       </c>
@@ -14624,10 +14623,10 @@
         <v>3</v>
       </c>
       <c r="C278" s="32" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E278" s="32" t="s">
         <v>6</v>
@@ -14651,15 +14650,15 @@
         <v>9</v>
       </c>
       <c r="N278" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O278" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P278" s="13"/>
       <c r="Q278" s="44"/>
     </row>
-    <row r="279" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="33" t="s">
         <v>796</v>
       </c>
@@ -14667,10 +14666,10 @@
         <v>3</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E279" s="32" t="s">
         <v>6</v>
@@ -14694,15 +14693,15 @@
         <v>9</v>
       </c>
       <c r="N279" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O279" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P279" s="13"/>
       <c r="Q279" s="44"/>
     </row>
-    <row r="280" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="33" t="s">
         <v>796</v>
       </c>
@@ -14710,10 +14709,10 @@
         <v>3</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E280" s="32" t="s">
         <v>6</v>
@@ -14737,15 +14736,15 @@
         <v>9</v>
       </c>
       <c r="N280" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O280" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P280" s="13"/>
       <c r="Q280" s="44"/>
     </row>
-    <row r="281" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="33" t="s">
         <v>796</v>
       </c>
@@ -14753,10 +14752,10 @@
         <v>3</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E281" s="32" t="s">
         <v>6</v>
@@ -14780,15 +14779,15 @@
         <v>9</v>
       </c>
       <c r="N281" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O281" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P281" s="13"/>
       <c r="Q281" s="44"/>
     </row>
-    <row r="282" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="33" t="s">
         <v>796</v>
       </c>
@@ -14796,10 +14795,10 @@
         <v>3</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E282" s="32" t="s">
         <v>6</v>
@@ -14823,15 +14822,15 @@
         <v>9</v>
       </c>
       <c r="N282" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O282" s="37" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="P282" s="13"/>
       <c r="Q282" s="44"/>
     </row>
-    <row r="283" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="33" t="s">
         <v>796</v>
       </c>
@@ -14839,10 +14838,10 @@
         <v>3</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E283" s="32" t="s">
         <v>6</v>
@@ -14866,317 +14865,319 @@
         <v>9</v>
       </c>
       <c r="N283" s="36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O283" s="37" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P283" s="13"/>
       <c r="Q283" s="44"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A284" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C284" s="3" t="s">
+    <row r="284" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="B284" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E284" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G284" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="32"/>
+      <c r="I284" s="32"/>
+      <c r="J284" s="35">
+        <v>43685</v>
+      </c>
+      <c r="K284" s="35"/>
+      <c r="L284" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M284" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N284" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O284" s="37" t="s">
+        <v>682</v>
+      </c>
+      <c r="P284" s="13"/>
+      <c r="Q284" s="44"/>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A285" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D284" s="68" t="s">
+      <c r="D285" s="70" t="s">
         <v>564</v>
       </c>
-      <c r="E284" s="69"/>
-      <c r="F284" s="69"/>
-      <c r="G284" s="69"/>
-      <c r="H284" s="69"/>
-      <c r="I284" s="69"/>
-      <c r="J284" s="69"/>
-      <c r="K284" s="69"/>
-      <c r="L284" s="69"/>
-      <c r="M284" s="69"/>
-      <c r="N284" s="69"/>
-      <c r="O284" s="69"/>
-      <c r="P284" s="70"/>
-      <c r="Q284" s="44"/>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A285" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B285" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285" s="59" t="s">
+      <c r="E285" s="71"/>
+      <c r="F285" s="71"/>
+      <c r="G285" s="71"/>
+      <c r="H285" s="71"/>
+      <c r="I285" s="71"/>
+      <c r="J285" s="71"/>
+      <c r="K285" s="71"/>
+      <c r="L285" s="71"/>
+      <c r="M285" s="71"/>
+      <c r="N285" s="71"/>
+      <c r="O285" s="71"/>
+      <c r="P285" s="72"/>
+      <c r="Q285" s="44"/>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A286" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B286" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="D285" s="65" t="s">
+      <c r="D286" s="73" t="s">
         <v>564</v>
       </c>
-      <c r="E285" s="66"/>
-      <c r="F285" s="66"/>
-      <c r="G285" s="66"/>
-      <c r="H285" s="66"/>
-      <c r="I285" s="66"/>
-      <c r="J285" s="66"/>
-      <c r="K285" s="66"/>
-      <c r="L285" s="66"/>
-      <c r="M285" s="66"/>
-      <c r="N285" s="66"/>
-      <c r="O285" s="66"/>
-      <c r="P285" s="67"/>
-      <c r="Q285" s="44"/>
-    </row>
-    <row r="286" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B286" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C286" s="32" t="s">
+      <c r="E286" s="74"/>
+      <c r="F286" s="74"/>
+      <c r="G286" s="74"/>
+      <c r="H286" s="74"/>
+      <c r="I286" s="74"/>
+      <c r="J286" s="74"/>
+      <c r="K286" s="74"/>
+      <c r="L286" s="74"/>
+      <c r="M286" s="74"/>
+      <c r="N286" s="74"/>
+      <c r="O286" s="74"/>
+      <c r="P286" s="75"/>
+      <c r="Q286" s="44"/>
+    </row>
+    <row r="287" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B287" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="D286" s="7" t="s">
+      <c r="D287" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="E286" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F286" s="32"/>
-      <c r="G286" s="32"/>
-      <c r="H286" s="32"/>
-      <c r="I286" s="32"/>
-      <c r="J286" s="35">
-        <v>1</v>
-      </c>
-      <c r="K286" s="35"/>
-      <c r="L286" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M286" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N286" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O286" s="37" t="s">
+      <c r="E287" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F287" s="32"/>
+      <c r="G287" s="32"/>
+      <c r="H287" s="32"/>
+      <c r="I287" s="32"/>
+      <c r="J287" s="35">
+        <v>1</v>
+      </c>
+      <c r="K287" s="35"/>
+      <c r="L287" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M287" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N287" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O287" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="P286" s="13" t="s">
+      <c r="P287" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="Q286" s="44"/>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A287" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C287" s="3" t="s">
+      <c r="Q287" s="44"/>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A288" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D287" s="68" t="s">
+      <c r="D288" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="E287" s="69"/>
-      <c r="F287" s="69"/>
-      <c r="G287" s="69"/>
-      <c r="H287" s="69"/>
-      <c r="I287" s="69"/>
-      <c r="J287" s="69"/>
-      <c r="K287" s="69"/>
-      <c r="L287" s="69"/>
-      <c r="M287" s="69"/>
-      <c r="N287" s="69"/>
-      <c r="O287" s="69"/>
-      <c r="P287" s="70"/>
-      <c r="Q287" s="44"/>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A288" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B288" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C288" s="59" t="s">
+      <c r="E288" s="71"/>
+      <c r="F288" s="71"/>
+      <c r="G288" s="71"/>
+      <c r="H288" s="71"/>
+      <c r="I288" s="71"/>
+      <c r="J288" s="71"/>
+      <c r="K288" s="71"/>
+      <c r="L288" s="71"/>
+      <c r="M288" s="71"/>
+      <c r="N288" s="71"/>
+      <c r="O288" s="71"/>
+      <c r="P288" s="72"/>
+      <c r="Q288" s="44"/>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A289" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B289" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="D288" s="65" t="s">
+      <c r="D289" s="73" t="s">
         <v>373</v>
       </c>
-      <c r="E288" s="66"/>
-      <c r="F288" s="66"/>
-      <c r="G288" s="66"/>
-      <c r="H288" s="66"/>
-      <c r="I288" s="66"/>
-      <c r="J288" s="66"/>
-      <c r="K288" s="66"/>
-      <c r="L288" s="66"/>
-      <c r="M288" s="66"/>
-      <c r="N288" s="66"/>
-      <c r="O288" s="66"/>
-      <c r="P288" s="67"/>
-      <c r="Q288" s="44"/>
-    </row>
-    <row r="289" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B289" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C289" s="32" t="s">
+      <c r="E289" s="74"/>
+      <c r="F289" s="74"/>
+      <c r="G289" s="74"/>
+      <c r="H289" s="74"/>
+      <c r="I289" s="74"/>
+      <c r="J289" s="74"/>
+      <c r="K289" s="74"/>
+      <c r="L289" s="74"/>
+      <c r="M289" s="74"/>
+      <c r="N289" s="74"/>
+      <c r="O289" s="74"/>
+      <c r="P289" s="75"/>
+      <c r="Q289" s="44"/>
+    </row>
+    <row r="290" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B290" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="D289" s="7" t="s">
+      <c r="D290" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="E289" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F289" s="32" t="s">
+      <c r="E290" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G289" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H289" s="32"/>
-      <c r="I289" s="32" t="s">
+      <c r="G290" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H290" s="32"/>
+      <c r="I290" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="J289" s="35">
-        <v>1</v>
-      </c>
-      <c r="K289" s="35">
+      <c r="J290" s="35">
+        <v>1</v>
+      </c>
+      <c r="K290" s="35">
         <v>39202</v>
       </c>
-      <c r="L289" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M289" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N289" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O289" s="37" t="s">
+      <c r="L290" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M290" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N290" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O290" s="37" t="s">
         <v>682</v>
       </c>
-      <c r="P289" s="12"/>
-      <c r="Q289" s="44"/>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A290" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C290" s="3" t="s">
+      <c r="P290" s="12"/>
+      <c r="Q290" s="44"/>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A291" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D290" s="68" t="s">
+      <c r="D291" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="E290" s="69"/>
-      <c r="F290" s="69"/>
-      <c r="G290" s="69"/>
-      <c r="H290" s="69"/>
-      <c r="I290" s="69"/>
-      <c r="J290" s="69"/>
-      <c r="K290" s="69"/>
-      <c r="L290" s="69"/>
-      <c r="M290" s="69"/>
-      <c r="N290" s="69"/>
-      <c r="O290" s="69"/>
-      <c r="P290" s="70"/>
-      <c r="Q290" s="44"/>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A291" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B291" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C291" s="59" t="s">
+      <c r="E291" s="71"/>
+      <c r="F291" s="71"/>
+      <c r="G291" s="71"/>
+      <c r="H291" s="71"/>
+      <c r="I291" s="71"/>
+      <c r="J291" s="71"/>
+      <c r="K291" s="71"/>
+      <c r="L291" s="71"/>
+      <c r="M291" s="71"/>
+      <c r="N291" s="71"/>
+      <c r="O291" s="71"/>
+      <c r="P291" s="72"/>
+      <c r="Q291" s="44"/>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A292" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="D291" s="65" t="s">
+      <c r="D292" s="73" t="s">
         <v>565</v>
       </c>
-      <c r="E291" s="66"/>
-      <c r="F291" s="66"/>
-      <c r="G291" s="66"/>
-      <c r="H291" s="66"/>
-      <c r="I291" s="66"/>
-      <c r="J291" s="66"/>
-      <c r="K291" s="66"/>
-      <c r="L291" s="66"/>
-      <c r="M291" s="66"/>
-      <c r="N291" s="66"/>
-      <c r="O291" s="66"/>
-      <c r="P291" s="67"/>
-      <c r="Q291" s="44"/>
-    </row>
-    <row r="292" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B292" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C292" s="32" t="s">
+      <c r="E292" s="74"/>
+      <c r="F292" s="74"/>
+      <c r="G292" s="74"/>
+      <c r="H292" s="74"/>
+      <c r="I292" s="74"/>
+      <c r="J292" s="74"/>
+      <c r="K292" s="74"/>
+      <c r="L292" s="74"/>
+      <c r="M292" s="74"/>
+      <c r="N292" s="74"/>
+      <c r="O292" s="74"/>
+      <c r="P292" s="75"/>
+      <c r="Q292" s="44"/>
+    </row>
+    <row r="293" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="D292" s="7" t="s">
+      <c r="D293" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="E292" s="32"/>
-      <c r="F292" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G292" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H292" s="32"/>
-      <c r="I292" s="32"/>
-      <c r="J292" s="35">
-        <v>1</v>
-      </c>
-      <c r="K292" s="35"/>
-      <c r="L292" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M292" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N292" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O292" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P292" s="12"/>
-      <c r="Q292" s="44"/>
-    </row>
-    <row r="293" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B293" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C293" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="D293" s="7" t="s">
-        <v>782</v>
       </c>
       <c r="E293" s="32"/>
       <c r="F293" s="32" t="s">
@@ -15206,18 +15207,18 @@
       <c r="P293" s="12"/>
       <c r="Q293" s="44"/>
     </row>
-    <row r="294" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="33" t="s">
-        <v>30</v>
+        <v>780</v>
       </c>
       <c r="B294" s="33" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C294" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>382</v>
+        <v>782</v>
       </c>
       <c r="E294" s="32"/>
       <c r="F294" s="32" t="s">
@@ -15255,10 +15256,10 @@
         <v>3</v>
       </c>
       <c r="C295" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E295" s="32"/>
       <c r="F295" s="32" t="s">
@@ -15296,10 +15297,10 @@
         <v>3</v>
       </c>
       <c r="C296" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E296" s="32"/>
       <c r="F296" s="32" t="s">
@@ -15337,10 +15338,10 @@
         <v>3</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E297" s="32"/>
       <c r="F297" s="32" t="s">
@@ -15378,10 +15379,10 @@
         <v>3</v>
       </c>
       <c r="C298" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E298" s="32"/>
       <c r="F298" s="32" t="s">
@@ -15419,10 +15420,10 @@
         <v>3</v>
       </c>
       <c r="C299" s="32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E299" s="32"/>
       <c r="F299" s="32" t="s">
@@ -15460,10 +15461,10 @@
         <v>3</v>
       </c>
       <c r="C300" s="32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E300" s="32"/>
       <c r="F300" s="32" t="s">
@@ -15501,10 +15502,10 @@
         <v>3</v>
       </c>
       <c r="C301" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E301" s="32"/>
       <c r="F301" s="32" t="s">
@@ -15542,10 +15543,10 @@
         <v>3</v>
       </c>
       <c r="C302" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E302" s="32"/>
       <c r="F302" s="32" t="s">
@@ -15583,10 +15584,10 @@
         <v>3</v>
       </c>
       <c r="C303" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E303" s="32"/>
       <c r="F303" s="32" t="s">
@@ -15624,24 +15625,24 @@
         <v>3</v>
       </c>
       <c r="C304" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E304" s="32"/>
       <c r="F304" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G304" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="G304" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="H304" s="32"/>
       <c r="I304" s="32"/>
       <c r="J304" s="35">
         <v>1</v>
       </c>
-      <c r="K304" s="35">
-        <v>40523</v>
-      </c>
+      <c r="K304" s="35"/>
       <c r="L304" s="35" t="s">
         <v>591</v>
       </c>
@@ -15665,14 +15666,14 @@
         <v>3</v>
       </c>
       <c r="C305" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E305" s="32"/>
       <c r="F305" s="32" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="G305" s="32"/>
       <c r="H305" s="32"/>
@@ -15681,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="K305" s="35">
-        <v>41517</v>
+        <v>40523</v>
       </c>
       <c r="L305" s="35" t="s">
         <v>591</v>
@@ -15706,10 +15707,10 @@
         <v>3</v>
       </c>
       <c r="C306" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E306" s="32"/>
       <c r="F306" s="32" t="s">
@@ -15719,9 +15720,11 @@
       <c r="H306" s="32"/>
       <c r="I306" s="32"/>
       <c r="J306" s="35">
-        <v>40524</v>
-      </c>
-      <c r="K306" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="K306" s="35">
+        <v>41517</v>
+      </c>
       <c r="L306" s="35" t="s">
         <v>591</v>
       </c>
@@ -15745,10 +15748,10 @@
         <v>3</v>
       </c>
       <c r="C307" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E307" s="32"/>
       <c r="F307" s="32" t="s">
@@ -15758,7 +15761,7 @@
       <c r="H307" s="32"/>
       <c r="I307" s="32"/>
       <c r="J307" s="35">
-        <v>41518</v>
+        <v>40524</v>
       </c>
       <c r="K307" s="35"/>
       <c r="L307" s="35" t="s">
@@ -15776,97 +15779,97 @@
       <c r="P307" s="12"/>
       <c r="Q307" s="44"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A308" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C308" s="3" t="s">
+    <row r="308" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B308" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E308" s="32"/>
+      <c r="F308" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G308" s="32"/>
+      <c r="H308" s="32"/>
+      <c r="I308" s="32"/>
+      <c r="J308" s="35">
+        <v>41518</v>
+      </c>
+      <c r="K308" s="35"/>
+      <c r="L308" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M308" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N308" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O308" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="P308" s="12"/>
+      <c r="Q308" s="44"/>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A309" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D308" s="68" t="s">
+      <c r="D309" s="70" t="s">
         <v>566</v>
       </c>
-      <c r="E308" s="69"/>
-      <c r="F308" s="69"/>
-      <c r="G308" s="69"/>
-      <c r="H308" s="69"/>
-      <c r="I308" s="69"/>
-      <c r="J308" s="69"/>
-      <c r="K308" s="69"/>
-      <c r="L308" s="69"/>
-      <c r="M308" s="69"/>
-      <c r="N308" s="69"/>
-      <c r="O308" s="69"/>
-      <c r="P308" s="70"/>
-      <c r="Q308" s="44"/>
-    </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A309" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B309" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C309" s="59" t="s">
+      <c r="E309" s="71"/>
+      <c r="F309" s="71"/>
+      <c r="G309" s="71"/>
+      <c r="H309" s="71"/>
+      <c r="I309" s="71"/>
+      <c r="J309" s="71"/>
+      <c r="K309" s="71"/>
+      <c r="L309" s="71"/>
+      <c r="M309" s="71"/>
+      <c r="N309" s="71"/>
+      <c r="O309" s="71"/>
+      <c r="P309" s="72"/>
+      <c r="Q309" s="44"/>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A310" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B310" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310" s="59" t="s">
         <v>411</v>
       </c>
-      <c r="D309" s="65" t="s">
+      <c r="D310" s="73" t="s">
         <v>566</v>
       </c>
-      <c r="E309" s="66"/>
-      <c r="F309" s="66"/>
-      <c r="G309" s="66"/>
-      <c r="H309" s="66"/>
-      <c r="I309" s="66"/>
-      <c r="J309" s="66"/>
-      <c r="K309" s="66"/>
-      <c r="L309" s="66"/>
-      <c r="M309" s="66"/>
-      <c r="N309" s="66"/>
-      <c r="O309" s="66"/>
-      <c r="P309" s="67"/>
-      <c r="Q309" s="44"/>
-    </row>
-    <row r="310" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B310" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C310" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="D310" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E310" s="32"/>
-      <c r="F310" s="32"/>
-      <c r="G310" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H310" s="32"/>
-      <c r="I310" s="32"/>
-      <c r="J310" s="35">
-        <v>1</v>
-      </c>
-      <c r="K310" s="35"/>
-      <c r="L310" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M310" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N310" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O310" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P310" s="12"/>
+      <c r="E310" s="74"/>
+      <c r="F310" s="74"/>
+      <c r="G310" s="74"/>
+      <c r="H310" s="74"/>
+      <c r="I310" s="74"/>
+      <c r="J310" s="74"/>
+      <c r="K310" s="74"/>
+      <c r="L310" s="74"/>
+      <c r="M310" s="74"/>
+      <c r="N310" s="74"/>
+      <c r="O310" s="74"/>
+      <c r="P310" s="75"/>
       <c r="Q310" s="44"/>
     </row>
     <row r="311" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15877,10 +15880,10 @@
         <v>3</v>
       </c>
       <c r="C311" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E311" s="32"/>
       <c r="F311" s="32"/>
@@ -15910,16 +15913,16 @@
     </row>
     <row r="312" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="33" t="s">
-        <v>722</v>
+        <v>30</v>
       </c>
       <c r="B312" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C312" s="32" t="s">
-        <v>762</v>
+        <v>415</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>763</v>
+        <v>416</v>
       </c>
       <c r="E312" s="32"/>
       <c r="F312" s="32"/>
@@ -15929,7 +15932,7 @@
       <c r="H312" s="32"/>
       <c r="I312" s="32"/>
       <c r="J312" s="35">
-        <v>42614</v>
+        <v>1</v>
       </c>
       <c r="K312" s="35"/>
       <c r="L312" s="35" t="s">
@@ -15949,16 +15952,16 @@
     </row>
     <row r="313" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="33" t="s">
-        <v>30</v>
+        <v>722</v>
       </c>
       <c r="B313" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C313" s="32" t="s">
-        <v>417</v>
+        <v>762</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>418</v>
+        <v>763</v>
       </c>
       <c r="E313" s="32"/>
       <c r="F313" s="32"/>
@@ -15968,7 +15971,7 @@
       <c r="H313" s="32"/>
       <c r="I313" s="32"/>
       <c r="J313" s="35">
-        <v>1</v>
+        <v>42614</v>
       </c>
       <c r="K313" s="35"/>
       <c r="L313" s="35" t="s">
@@ -15994,10 +15997,10 @@
         <v>3</v>
       </c>
       <c r="C314" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E314" s="32"/>
       <c r="F314" s="32"/>
@@ -16033,10 +16036,10 @@
         <v>3</v>
       </c>
       <c r="C315" s="32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E315" s="32"/>
       <c r="F315" s="32"/>
@@ -16072,10 +16075,10 @@
         <v>3</v>
       </c>
       <c r="C316" s="32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E316" s="32"/>
       <c r="F316" s="32"/>
@@ -16111,10 +16114,10 @@
         <v>3</v>
       </c>
       <c r="C317" s="32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E317" s="32"/>
       <c r="F317" s="32"/>
@@ -16150,10 +16153,10 @@
         <v>3</v>
       </c>
       <c r="C318" s="32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E318" s="32"/>
       <c r="F318" s="32"/>
@@ -16189,10 +16192,10 @@
         <v>3</v>
       </c>
       <c r="C319" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E319" s="32"/>
       <c r="F319" s="32"/>
@@ -16228,10 +16231,10 @@
         <v>3</v>
       </c>
       <c r="C320" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E320" s="32"/>
       <c r="F320" s="32"/>
@@ -16267,10 +16270,10 @@
         <v>3</v>
       </c>
       <c r="C321" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E321" s="32"/>
       <c r="F321" s="32"/>
@@ -16306,10 +16309,10 @@
         <v>3</v>
       </c>
       <c r="C322" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E322" s="32"/>
       <c r="F322" s="32"/>
@@ -16345,15 +16348,15 @@
         <v>3</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E323" s="32"/>
       <c r="F323" s="32"/>
       <c r="G323" s="32" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="H323" s="32"/>
       <c r="I323" s="32"/>
@@ -16384,10 +16387,10 @@
         <v>3</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E324" s="32"/>
       <c r="F324" s="32"/>
@@ -16423,10 +16426,10 @@
         <v>3</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E325" s="32"/>
       <c r="F325" s="32"/>
@@ -16462,10 +16465,10 @@
         <v>3</v>
       </c>
       <c r="C326" s="32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E326" s="32"/>
       <c r="F326" s="32"/>
@@ -16501,10 +16504,10 @@
         <v>3</v>
       </c>
       <c r="C327" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E327" s="32"/>
       <c r="F327" s="32"/>
@@ -16540,15 +16543,15 @@
         <v>3</v>
       </c>
       <c r="C328" s="32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E328" s="32"/>
       <c r="F328" s="32"/>
       <c r="G328" s="32" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H328" s="32"/>
       <c r="I328" s="32"/>
@@ -16579,15 +16582,15 @@
         <v>3</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E329" s="32"/>
       <c r="F329" s="32"/>
       <c r="G329" s="32" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="H329" s="32"/>
       <c r="I329" s="32"/>
@@ -16618,10 +16621,10 @@
         <v>3</v>
       </c>
       <c r="C330" s="32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E330" s="32"/>
       <c r="F330" s="32"/>
@@ -16657,10 +16660,10 @@
         <v>3</v>
       </c>
       <c r="C331" s="32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E331" s="32"/>
       <c r="F331" s="32"/>
@@ -16696,15 +16699,15 @@
         <v>3</v>
       </c>
       <c r="C332" s="32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E332" s="32"/>
       <c r="F332" s="32"/>
       <c r="G332" s="32" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H332" s="32"/>
       <c r="I332" s="32"/>
@@ -16735,15 +16738,15 @@
         <v>3</v>
       </c>
       <c r="C333" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E333" s="32"/>
       <c r="F333" s="32"/>
       <c r="G333" s="32" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="H333" s="32"/>
       <c r="I333" s="32"/>
@@ -16768,30 +16771,28 @@
     </row>
     <row r="334" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="33" t="s">
-        <v>879</v>
+        <v>30</v>
       </c>
       <c r="B334" s="33" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C334" s="32" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E334" s="32"/>
       <c r="F334" s="32"/>
       <c r="G334" s="32" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H334" s="32"/>
       <c r="I334" s="32"/>
       <c r="J334" s="35">
         <v>1</v>
       </c>
-      <c r="K334" s="35">
-        <v>44926</v>
-      </c>
+      <c r="K334" s="35"/>
       <c r="L334" s="35" t="s">
         <v>591</v>
       </c>
@@ -16805,20 +16806,20 @@
         <v>695</v>
       </c>
       <c r="P334" s="12"/>
-      <c r="Q334" s="39"/>
+      <c r="Q334" s="44"/>
     </row>
     <row r="335" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="33" t="s">
-        <v>30</v>
+        <v>879</v>
       </c>
       <c r="B335" s="33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E335" s="32"/>
       <c r="F335" s="32"/>
@@ -16830,7 +16831,9 @@
       <c r="J335" s="35">
         <v>1</v>
       </c>
-      <c r="K335" s="35"/>
+      <c r="K335" s="35">
+        <v>44926</v>
+      </c>
       <c r="L335" s="35" t="s">
         <v>591</v>
       </c>
@@ -16844,7 +16847,7 @@
         <v>695</v>
       </c>
       <c r="P335" s="12"/>
-      <c r="Q335" s="44"/>
+      <c r="Q335" s="39"/>
     </row>
     <row r="336" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="33" t="s">
@@ -16854,10 +16857,10 @@
         <v>3</v>
       </c>
       <c r="C336" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E336" s="32"/>
       <c r="F336" s="32"/>
@@ -16887,16 +16890,16 @@
     </row>
     <row r="337" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="33" t="s">
-        <v>848</v>
+        <v>30</v>
       </c>
       <c r="B337" s="33" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C337" s="32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>850</v>
+        <v>464</v>
       </c>
       <c r="E337" s="32"/>
       <c r="F337" s="32"/>
@@ -16906,7 +16909,7 @@
       <c r="H337" s="32"/>
       <c r="I337" s="32"/>
       <c r="J337" s="35">
-        <v>40812</v>
+        <v>1</v>
       </c>
       <c r="K337" s="35"/>
       <c r="L337" s="35" t="s">
@@ -16926,16 +16929,16 @@
     </row>
     <row r="338" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="33" t="s">
-        <v>30</v>
+        <v>848</v>
       </c>
       <c r="B338" s="33" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C338" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>467</v>
+        <v>850</v>
       </c>
       <c r="E338" s="32"/>
       <c r="F338" s="32"/>
@@ -16971,10 +16974,10 @@
         <v>3</v>
       </c>
       <c r="C339" s="32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E339" s="32"/>
       <c r="F339" s="32"/>
@@ -16984,7 +16987,7 @@
       <c r="H339" s="32"/>
       <c r="I339" s="32"/>
       <c r="J339" s="35">
-        <v>41034</v>
+        <v>40812</v>
       </c>
       <c r="K339" s="35"/>
       <c r="L339" s="35" t="s">
@@ -17009,23 +17012,23 @@
       <c r="B340" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C340" s="42" t="s">
-        <v>470</v>
-      </c>
-      <c r="D340" s="45" t="s">
-        <v>471</v>
-      </c>
-      <c r="E340" s="42"/>
-      <c r="F340" s="42"/>
-      <c r="G340" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="H340" s="42"/>
-      <c r="I340" s="42"/>
-      <c r="J340" s="43">
-        <v>41722</v>
-      </c>
-      <c r="K340" s="43"/>
+      <c r="C340" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D340" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E340" s="32"/>
+      <c r="F340" s="32"/>
+      <c r="G340" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H340" s="32"/>
+      <c r="I340" s="32"/>
+      <c r="J340" s="35">
+        <v>41034</v>
+      </c>
+      <c r="K340" s="35"/>
       <c r="L340" s="35" t="s">
         <v>591</v>
       </c>
@@ -17048,23 +17051,23 @@
       <c r="B341" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C341" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="D341" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="E341" s="32"/>
-      <c r="F341" s="32"/>
-      <c r="G341" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H341" s="32"/>
-      <c r="I341" s="32"/>
-      <c r="J341" s="35">
-        <v>41949</v>
-      </c>
-      <c r="K341" s="35"/>
+      <c r="C341" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="D341" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="E341" s="42"/>
+      <c r="F341" s="42"/>
+      <c r="G341" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H341" s="42"/>
+      <c r="I341" s="42"/>
+      <c r="J341" s="43">
+        <v>41722</v>
+      </c>
+      <c r="K341" s="43"/>
       <c r="L341" s="35" t="s">
         <v>591</v>
       </c>
@@ -17080,18 +17083,18 @@
       <c r="P341" s="12"/>
       <c r="Q341" s="44"/>
     </row>
-    <row r="342" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="33" t="s">
-        <v>848</v>
+        <v>30</v>
       </c>
       <c r="B342" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C342" s="32" t="s">
-        <v>849</v>
+        <v>409</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>851</v>
+        <v>410</v>
       </c>
       <c r="E342" s="32"/>
       <c r="F342" s="32"/>
@@ -17119,97 +17122,97 @@
       <c r="P342" s="12"/>
       <c r="Q342" s="44"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A343" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C343" s="3" t="s">
+    <row r="343" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="33" t="s">
+        <v>848</v>
+      </c>
+      <c r="B343" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343" s="32" t="s">
+        <v>849</v>
+      </c>
+      <c r="D343" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E343" s="32"/>
+      <c r="F343" s="32"/>
+      <c r="G343" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="32"/>
+      <c r="I343" s="32"/>
+      <c r="J343" s="35">
+        <v>41949</v>
+      </c>
+      <c r="K343" s="35"/>
+      <c r="L343" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M343" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N343" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O343" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="P343" s="12"/>
+      <c r="Q343" s="44"/>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A344" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D343" s="68" t="s">
+      <c r="D344" s="70" t="s">
         <v>567</v>
       </c>
-      <c r="E343" s="69"/>
-      <c r="F343" s="69"/>
-      <c r="G343" s="69"/>
-      <c r="H343" s="69"/>
-      <c r="I343" s="69"/>
-      <c r="J343" s="69"/>
-      <c r="K343" s="69"/>
-      <c r="L343" s="69"/>
-      <c r="M343" s="69"/>
-      <c r="N343" s="69"/>
-      <c r="O343" s="69"/>
-      <c r="P343" s="70"/>
-      <c r="Q343" s="44"/>
-    </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A344" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B344" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C344" s="59" t="s">
+      <c r="E344" s="71"/>
+      <c r="F344" s="71"/>
+      <c r="G344" s="71"/>
+      <c r="H344" s="71"/>
+      <c r="I344" s="71"/>
+      <c r="J344" s="71"/>
+      <c r="K344" s="71"/>
+      <c r="L344" s="71"/>
+      <c r="M344" s="71"/>
+      <c r="N344" s="71"/>
+      <c r="O344" s="71"/>
+      <c r="P344" s="72"/>
+      <c r="Q344" s="44"/>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A345" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B345" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="D344" s="65" t="s">
+      <c r="D345" s="73" t="s">
         <v>568</v>
       </c>
-      <c r="E344" s="66"/>
-      <c r="F344" s="66"/>
-      <c r="G344" s="66"/>
-      <c r="H344" s="66"/>
-      <c r="I344" s="66"/>
-      <c r="J344" s="66"/>
-      <c r="K344" s="66"/>
-      <c r="L344" s="66"/>
-      <c r="M344" s="66"/>
-      <c r="N344" s="66"/>
-      <c r="O344" s="66"/>
-      <c r="P344" s="67"/>
-      <c r="Q344" s="44"/>
-    </row>
-    <row r="345" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B345" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C345" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="D345" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="E345" s="32"/>
-      <c r="F345" s="32"/>
-      <c r="G345" s="32"/>
-      <c r="H345" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I345" s="32"/>
-      <c r="J345" s="35">
-        <v>1</v>
-      </c>
-      <c r="K345" s="35"/>
-      <c r="L345" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M345" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N345" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O345" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P345" s="12"/>
+      <c r="E345" s="74"/>
+      <c r="F345" s="74"/>
+      <c r="G345" s="74"/>
+      <c r="H345" s="74"/>
+      <c r="I345" s="74"/>
+      <c r="J345" s="74"/>
+      <c r="K345" s="74"/>
+      <c r="L345" s="74"/>
+      <c r="M345" s="74"/>
+      <c r="N345" s="74"/>
+      <c r="O345" s="74"/>
+      <c r="P345" s="75"/>
       <c r="Q345" s="44"/>
     </row>
     <row r="346" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17220,10 +17223,10 @@
         <v>3</v>
       </c>
       <c r="C346" s="32" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E346" s="32"/>
       <c r="F346" s="32"/>
@@ -17259,10 +17262,10 @@
         <v>3</v>
       </c>
       <c r="C347" s="32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E347" s="32"/>
       <c r="F347" s="32"/>
@@ -17298,10 +17301,10 @@
         <v>3</v>
       </c>
       <c r="C348" s="32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E348" s="32"/>
       <c r="F348" s="32"/>
@@ -17337,10 +17340,10 @@
         <v>3</v>
       </c>
       <c r="C349" s="32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>768</v>
+        <v>481</v>
       </c>
       <c r="E349" s="32"/>
       <c r="F349" s="32"/>
@@ -17376,10 +17379,10 @@
         <v>3</v>
       </c>
       <c r="C350" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>484</v>
+        <v>768</v>
       </c>
       <c r="E350" s="32"/>
       <c r="F350" s="32"/>
@@ -17415,10 +17418,10 @@
         <v>3</v>
       </c>
       <c r="C351" s="32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E351" s="32"/>
       <c r="F351" s="32"/>
@@ -17453,23 +17456,23 @@
       <c r="B352" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C352" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="D352" s="45" t="s">
-        <v>488</v>
-      </c>
-      <c r="E352" s="42"/>
-      <c r="F352" s="42"/>
-      <c r="G352" s="42"/>
-      <c r="H352" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I352" s="42"/>
-      <c r="J352" s="43">
-        <v>41365</v>
-      </c>
-      <c r="K352" s="43"/>
+      <c r="C352" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="D352" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E352" s="32"/>
+      <c r="F352" s="32"/>
+      <c r="G352" s="32"/>
+      <c r="H352" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I352" s="32"/>
+      <c r="J352" s="35">
+        <v>1</v>
+      </c>
+      <c r="K352" s="35"/>
       <c r="L352" s="35" t="s">
         <v>591</v>
       </c>
@@ -17493,10 +17496,10 @@
         <v>3</v>
       </c>
       <c r="C353" s="42" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D353" s="45" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E353" s="42"/>
       <c r="F353" s="42"/>
@@ -17506,7 +17509,7 @@
       </c>
       <c r="I353" s="42"/>
       <c r="J353" s="43">
-        <v>1</v>
+        <v>41365</v>
       </c>
       <c r="K353" s="43"/>
       <c r="L353" s="35" t="s">
@@ -17524,70 +17527,70 @@
       <c r="P353" s="12"/>
       <c r="Q353" s="44"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A354" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B354" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C354" s="59" t="s">
+    <row r="354" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B354" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="D354" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="E354" s="42"/>
+      <c r="F354" s="42"/>
+      <c r="G354" s="42"/>
+      <c r="H354" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I354" s="42"/>
+      <c r="J354" s="43">
+        <v>1</v>
+      </c>
+      <c r="K354" s="43"/>
+      <c r="L354" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M354" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N354" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O354" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="P354" s="12"/>
+      <c r="Q354" s="44"/>
+    </row>
+    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A355" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B355" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D354" s="65" t="s">
+      <c r="D355" s="73" t="s">
         <v>569</v>
       </c>
-      <c r="E354" s="66"/>
-      <c r="F354" s="66"/>
-      <c r="G354" s="66"/>
-      <c r="H354" s="66"/>
-      <c r="I354" s="66"/>
-      <c r="J354" s="66"/>
-      <c r="K354" s="66"/>
-      <c r="L354" s="66"/>
-      <c r="M354" s="66"/>
-      <c r="N354" s="66"/>
-      <c r="O354" s="66"/>
-      <c r="P354" s="67"/>
-      <c r="Q354" s="44"/>
-    </row>
-    <row r="355" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B355" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C355" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="D355" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="E355" s="32"/>
-      <c r="F355" s="32"/>
-      <c r="G355" s="32"/>
-      <c r="H355" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I355" s="32"/>
-      <c r="J355" s="35">
-        <v>1</v>
-      </c>
-      <c r="K355" s="35"/>
-      <c r="L355" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M355" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N355" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O355" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P355" s="12"/>
+      <c r="E355" s="74"/>
+      <c r="F355" s="74"/>
+      <c r="G355" s="74"/>
+      <c r="H355" s="74"/>
+      <c r="I355" s="74"/>
+      <c r="J355" s="74"/>
+      <c r="K355" s="74"/>
+      <c r="L355" s="74"/>
+      <c r="M355" s="74"/>
+      <c r="N355" s="74"/>
+      <c r="O355" s="74"/>
+      <c r="P355" s="75"/>
       <c r="Q355" s="44"/>
     </row>
     <row r="356" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17598,10 +17601,10 @@
         <v>3</v>
       </c>
       <c r="C356" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E356" s="32"/>
       <c r="F356" s="32"/>
@@ -17637,10 +17640,10 @@
         <v>3</v>
       </c>
       <c r="C357" s="32" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E357" s="32"/>
       <c r="F357" s="32"/>
@@ -17676,10 +17679,10 @@
         <v>3</v>
       </c>
       <c r="C358" s="32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E358" s="32"/>
       <c r="F358" s="32"/>
@@ -17715,10 +17718,10 @@
         <v>3</v>
       </c>
       <c r="C359" s="32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E359" s="32"/>
       <c r="F359" s="32"/>
@@ -17754,10 +17757,10 @@
         <v>3</v>
       </c>
       <c r="C360" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E360" s="32"/>
       <c r="F360" s="32"/>
@@ -17793,10 +17796,10 @@
         <v>3</v>
       </c>
       <c r="C361" s="32" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E361" s="32"/>
       <c r="F361" s="32"/>
@@ -17832,10 +17835,10 @@
         <v>3</v>
       </c>
       <c r="C362" s="32" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E362" s="32"/>
       <c r="F362" s="32"/>
@@ -17871,10 +17874,10 @@
         <v>3</v>
       </c>
       <c r="C363" s="32" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E363" s="32"/>
       <c r="F363" s="32"/>
@@ -17910,10 +17913,10 @@
         <v>3</v>
       </c>
       <c r="C364" s="32" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E364" s="32"/>
       <c r="F364" s="32"/>
@@ -17949,10 +17952,10 @@
         <v>3</v>
       </c>
       <c r="C365" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E365" s="32"/>
       <c r="F365" s="32"/>
@@ -17988,10 +17991,10 @@
         <v>3</v>
       </c>
       <c r="C366" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E366" s="32"/>
       <c r="F366" s="32"/>
@@ -18026,23 +18029,23 @@
       <c r="B367" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C367" s="42" t="s">
-        <v>516</v>
-      </c>
-      <c r="D367" s="45" t="s">
-        <v>517</v>
-      </c>
-      <c r="E367" s="42"/>
-      <c r="F367" s="42"/>
-      <c r="G367" s="42"/>
-      <c r="H367" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I367" s="42"/>
-      <c r="J367" s="43">
-        <v>41365</v>
-      </c>
-      <c r="K367" s="43"/>
+      <c r="C367" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="D367" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E367" s="32"/>
+      <c r="F367" s="32"/>
+      <c r="G367" s="32"/>
+      <c r="H367" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I367" s="32"/>
+      <c r="J367" s="35">
+        <v>1</v>
+      </c>
+      <c r="K367" s="35"/>
       <c r="L367" s="35" t="s">
         <v>591</v>
       </c>
@@ -18058,70 +18061,70 @@
       <c r="P367" s="12"/>
       <c r="Q367" s="44"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A368" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B368" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C368" s="59" t="s">
+    <row r="368" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B368" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C368" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="D368" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="E368" s="42"/>
+      <c r="F368" s="42"/>
+      <c r="G368" s="42"/>
+      <c r="H368" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I368" s="42"/>
+      <c r="J368" s="43">
+        <v>41365</v>
+      </c>
+      <c r="K368" s="43"/>
+      <c r="L368" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M368" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N368" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O368" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="P368" s="12"/>
+      <c r="Q368" s="44"/>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A369" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B369" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C369" s="59" t="s">
         <v>520</v>
       </c>
-      <c r="D368" s="65" t="s">
+      <c r="D369" s="73" t="s">
         <v>570</v>
       </c>
-      <c r="E368" s="66"/>
-      <c r="F368" s="66"/>
-      <c r="G368" s="66"/>
-      <c r="H368" s="66"/>
-      <c r="I368" s="66"/>
-      <c r="J368" s="66"/>
-      <c r="K368" s="66"/>
-      <c r="L368" s="66"/>
-      <c r="M368" s="66"/>
-      <c r="N368" s="66"/>
-      <c r="O368" s="66"/>
-      <c r="P368" s="67"/>
-      <c r="Q368" s="44"/>
-    </row>
-    <row r="369" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B369" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C369" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="D369" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="E369" s="32"/>
-      <c r="F369" s="32"/>
-      <c r="G369" s="32"/>
-      <c r="H369" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I369" s="32"/>
-      <c r="J369" s="35">
-        <v>1</v>
-      </c>
-      <c r="K369" s="35"/>
-      <c r="L369" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M369" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N369" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O369" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P369" s="12"/>
+      <c r="E369" s="74"/>
+      <c r="F369" s="74"/>
+      <c r="G369" s="74"/>
+      <c r="H369" s="74"/>
+      <c r="I369" s="74"/>
+      <c r="J369" s="74"/>
+      <c r="K369" s="74"/>
+      <c r="L369" s="74"/>
+      <c r="M369" s="74"/>
+      <c r="N369" s="74"/>
+      <c r="O369" s="74"/>
+      <c r="P369" s="75"/>
       <c r="Q369" s="44"/>
     </row>
     <row r="370" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -18132,10 +18135,10 @@
         <v>3</v>
       </c>
       <c r="C370" s="32" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E370" s="32"/>
       <c r="F370" s="32"/>
@@ -18171,10 +18174,10 @@
         <v>3</v>
       </c>
       <c r="C371" s="32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E371" s="32"/>
       <c r="F371" s="32"/>
@@ -18202,103 +18205,97 @@
       <c r="P371" s="12"/>
       <c r="Q371" s="44"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A372" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C372" s="3" t="s">
+    <row r="372" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B372" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="D372" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E372" s="32"/>
+      <c r="F372" s="32"/>
+      <c r="G372" s="32"/>
+      <c r="H372" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I372" s="32"/>
+      <c r="J372" s="35">
+        <v>1</v>
+      </c>
+      <c r="K372" s="35"/>
+      <c r="L372" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M372" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N372" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O372" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="P372" s="12"/>
+      <c r="Q372" s="44"/>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A373" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="D372" s="68" t="s">
+      <c r="D373" s="70" t="s">
         <v>571</v>
       </c>
-      <c r="E372" s="69"/>
-      <c r="F372" s="69"/>
-      <c r="G372" s="69"/>
-      <c r="H372" s="69"/>
-      <c r="I372" s="69"/>
-      <c r="J372" s="69"/>
-      <c r="K372" s="69"/>
-      <c r="L372" s="69"/>
-      <c r="M372" s="69"/>
-      <c r="N372" s="69"/>
-      <c r="O372" s="69"/>
-      <c r="P372" s="70"/>
-      <c r="Q372" s="44"/>
-    </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A373" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B373" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C373" s="59" t="s">
+      <c r="E373" s="71"/>
+      <c r="F373" s="71"/>
+      <c r="G373" s="71"/>
+      <c r="H373" s="71"/>
+      <c r="I373" s="71"/>
+      <c r="J373" s="71"/>
+      <c r="K373" s="71"/>
+      <c r="L373" s="71"/>
+      <c r="M373" s="71"/>
+      <c r="N373" s="71"/>
+      <c r="O373" s="71"/>
+      <c r="P373" s="72"/>
+      <c r="Q373" s="44"/>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A374" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B374" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="D373" s="65" t="s">
+      <c r="D374" s="73" t="s">
         <v>571</v>
       </c>
-      <c r="E373" s="66"/>
-      <c r="F373" s="66"/>
-      <c r="G373" s="66"/>
-      <c r="H373" s="66"/>
-      <c r="I373" s="66"/>
-      <c r="J373" s="66"/>
-      <c r="K373" s="66"/>
-      <c r="L373" s="66"/>
-      <c r="M373" s="66"/>
-      <c r="N373" s="66"/>
-      <c r="O373" s="66"/>
-      <c r="P373" s="67"/>
-      <c r="Q373" s="44"/>
-    </row>
-    <row r="374" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B374" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C374" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="D374" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="E374" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F374" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G374" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H374" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I374" s="32"/>
-      <c r="J374" s="35">
-        <v>1</v>
-      </c>
-      <c r="K374" s="35"/>
-      <c r="L374" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M374" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N374" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O374" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="P374" s="12"/>
+      <c r="E374" s="74"/>
+      <c r="F374" s="74"/>
+      <c r="G374" s="74"/>
+      <c r="H374" s="74"/>
+      <c r="I374" s="74"/>
+      <c r="J374" s="74"/>
+      <c r="K374" s="74"/>
+      <c r="L374" s="74"/>
+      <c r="M374" s="74"/>
+      <c r="N374" s="74"/>
+      <c r="O374" s="74"/>
+      <c r="P374" s="75"/>
       <c r="Q374" s="44"/>
     </row>
     <row r="375" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -18309,10 +18306,10 @@
         <v>3</v>
       </c>
       <c r="C375" s="32" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E375" s="32" t="s">
         <v>6</v>
@@ -18354,10 +18351,10 @@
         <v>3</v>
       </c>
       <c r="C376" s="32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E376" s="32" t="s">
         <v>6</v>
@@ -18399,10 +18396,10 @@
         <v>3</v>
       </c>
       <c r="C377" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E377" s="32" t="s">
         <v>6</v>
@@ -18444,19 +18441,23 @@
         <v>3</v>
       </c>
       <c r="C378" s="32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E378" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F378" s="32"/>
+      <c r="F378" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="G378" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H378" s="32"/>
+      <c r="H378" s="32" t="s">
+        <v>9</v>
+      </c>
       <c r="I378" s="32"/>
       <c r="J378" s="35">
         <v>1</v>
@@ -18485,10 +18486,10 @@
         <v>3</v>
       </c>
       <c r="C379" s="32" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E379" s="32" t="s">
         <v>6</v>
@@ -18518,226 +18519,283 @@
       <c r="P379" s="12"/>
       <c r="Q379" s="44"/>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A380" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C380" s="3" t="s">
+    <row r="380" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B380" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C380" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="D380" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E380" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F380" s="32"/>
+      <c r="G380" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H380" s="32"/>
+      <c r="I380" s="32"/>
+      <c r="J380" s="35">
+        <v>1</v>
+      </c>
+      <c r="K380" s="35"/>
+      <c r="L380" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M380" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N380" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O380" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="P380" s="12"/>
+      <c r="Q380" s="44"/>
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A381" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C381" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D380" s="68" t="s">
+      <c r="D381" s="70" t="s">
         <v>583</v>
       </c>
-      <c r="E380" s="69"/>
-      <c r="F380" s="69"/>
-      <c r="G380" s="69"/>
-      <c r="H380" s="69"/>
-      <c r="I380" s="69"/>
-      <c r="J380" s="69"/>
-      <c r="K380" s="69"/>
-      <c r="L380" s="69"/>
-      <c r="M380" s="69"/>
-      <c r="N380" s="69"/>
-      <c r="O380" s="69"/>
-      <c r="P380" s="70"/>
-      <c r="Q380" s="44"/>
-    </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A381" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B381" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C381" s="59" t="s">
+      <c r="E381" s="71"/>
+      <c r="F381" s="71"/>
+      <c r="G381" s="71"/>
+      <c r="H381" s="71"/>
+      <c r="I381" s="71"/>
+      <c r="J381" s="71"/>
+      <c r="K381" s="71"/>
+      <c r="L381" s="71"/>
+      <c r="M381" s="71"/>
+      <c r="N381" s="71"/>
+      <c r="O381" s="71"/>
+      <c r="P381" s="72"/>
+      <c r="Q381" s="44"/>
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A382" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B382" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C382" s="59" t="s">
         <v>582</v>
       </c>
-      <c r="D381" s="65" t="s">
+      <c r="D382" s="73" t="s">
         <v>583</v>
       </c>
-      <c r="E381" s="66"/>
-      <c r="F381" s="66"/>
-      <c r="G381" s="66"/>
-      <c r="H381" s="66"/>
-      <c r="I381" s="66"/>
-      <c r="J381" s="66"/>
-      <c r="K381" s="66"/>
-      <c r="L381" s="66"/>
-      <c r="M381" s="66"/>
-      <c r="N381" s="66"/>
-      <c r="O381" s="66"/>
-      <c r="P381" s="67"/>
-      <c r="Q381" s="44"/>
-    </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A382" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B382" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C382" s="32" t="s">
+      <c r="E382" s="74"/>
+      <c r="F382" s="74"/>
+      <c r="G382" s="74"/>
+      <c r="H382" s="74"/>
+      <c r="I382" s="74"/>
+      <c r="J382" s="74"/>
+      <c r="K382" s="74"/>
+      <c r="L382" s="74"/>
+      <c r="M382" s="74"/>
+      <c r="N382" s="74"/>
+      <c r="O382" s="74"/>
+      <c r="P382" s="75"/>
+      <c r="Q382" s="44"/>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A383" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B383" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C383" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="D382" s="7" t="s">
+      <c r="D383" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="E382" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F382" s="32" t="s">
+      <c r="E383" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F383" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G382" s="32" t="s">
+      <c r="G383" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H382" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I382" s="32" t="s">
+      <c r="H383" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I383" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="J382" s="35">
-        <v>1</v>
-      </c>
-      <c r="K382" s="35"/>
-      <c r="L382" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M382" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N382" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O382" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="P382" s="12"/>
-      <c r="Q382" s="44"/>
-    </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A383" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C383" s="3" t="s">
+      <c r="J383" s="35">
+        <v>1</v>
+      </c>
+      <c r="K383" s="35"/>
+      <c r="L383" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M383" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N383" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O383" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="P383" s="12"/>
+      <c r="Q383" s="44"/>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A384" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C384" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D383" s="68" t="s">
+      <c r="D384" s="70" t="s">
         <v>588</v>
       </c>
-      <c r="E383" s="69"/>
-      <c r="F383" s="69"/>
-      <c r="G383" s="69"/>
-      <c r="H383" s="69"/>
-      <c r="I383" s="69"/>
-      <c r="J383" s="69"/>
-      <c r="K383" s="69"/>
-      <c r="L383" s="69"/>
-      <c r="M383" s="69"/>
-      <c r="N383" s="69"/>
-      <c r="O383" s="69"/>
-      <c r="P383" s="70"/>
-      <c r="Q383" s="44"/>
-    </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A384" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B384" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C384" s="59" t="s">
+      <c r="E384" s="71"/>
+      <c r="F384" s="71"/>
+      <c r="G384" s="71"/>
+      <c r="H384" s="71"/>
+      <c r="I384" s="71"/>
+      <c r="J384" s="71"/>
+      <c r="K384" s="71"/>
+      <c r="L384" s="71"/>
+      <c r="M384" s="71"/>
+      <c r="N384" s="71"/>
+      <c r="O384" s="71"/>
+      <c r="P384" s="72"/>
+      <c r="Q384" s="44"/>
+    </row>
+    <row r="385" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A385" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B385" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C385" s="59" t="s">
         <v>587</v>
       </c>
-      <c r="D384" s="65" t="s">
+      <c r="D385" s="73" t="s">
         <v>588</v>
       </c>
-      <c r="E384" s="66"/>
-      <c r="F384" s="66"/>
-      <c r="G384" s="66"/>
-      <c r="H384" s="66"/>
-      <c r="I384" s="66"/>
-      <c r="J384" s="66"/>
-      <c r="K384" s="66"/>
-      <c r="L384" s="66"/>
-      <c r="M384" s="66"/>
-      <c r="N384" s="66"/>
-      <c r="O384" s="66"/>
-      <c r="P384" s="67"/>
-      <c r="Q384" s="44"/>
-    </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A385" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B385" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C385" s="32" t="s">
+      <c r="E385" s="74"/>
+      <c r="F385" s="74"/>
+      <c r="G385" s="74"/>
+      <c r="H385" s="74"/>
+      <c r="I385" s="74"/>
+      <c r="J385" s="74"/>
+      <c r="K385" s="74"/>
+      <c r="L385" s="74"/>
+      <c r="M385" s="74"/>
+      <c r="N385" s="74"/>
+      <c r="O385" s="74"/>
+      <c r="P385" s="75"/>
+      <c r="Q385" s="44"/>
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A386" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B386" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C386" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="D385" s="7" t="s">
+      <c r="D386" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="E385" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F385" s="32" t="s">
+      <c r="E386" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F386" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G385" s="32" t="s">
+      <c r="G386" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H385" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I385" s="32" t="s">
+      <c r="H386" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I386" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="J385" s="35">
-        <v>1</v>
-      </c>
-      <c r="K385" s="35"/>
-      <c r="L385" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="M385" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N385" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O385" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="P385" s="12"/>
-      <c r="Q385" s="44"/>
+      <c r="J386" s="35">
+        <v>1</v>
+      </c>
+      <c r="K386" s="35"/>
+      <c r="L386" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M386" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N386" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O386" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="P386" s="12"/>
+      <c r="Q386" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q385" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:Q386" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="52">
-    <mergeCell ref="D343:P343"/>
-    <mergeCell ref="D344:P344"/>
-    <mergeCell ref="D354:P354"/>
+    <mergeCell ref="D108:P108"/>
+    <mergeCell ref="D118:P118"/>
+    <mergeCell ref="D119:P119"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D53:P53"/>
+    <mergeCell ref="D77:P77"/>
+    <mergeCell ref="D95:P95"/>
+    <mergeCell ref="D96:P96"/>
+    <mergeCell ref="D98:P98"/>
+    <mergeCell ref="D99:P99"/>
+    <mergeCell ref="D381:P381"/>
+    <mergeCell ref="D382:P382"/>
+    <mergeCell ref="D384:P384"/>
+    <mergeCell ref="D385:P385"/>
+    <mergeCell ref="D262:P262"/>
+    <mergeCell ref="D309:P309"/>
+    <mergeCell ref="D369:P369"/>
+    <mergeCell ref="D373:P373"/>
+    <mergeCell ref="D374:P374"/>
+    <mergeCell ref="D263:P263"/>
+    <mergeCell ref="D285:P285"/>
+    <mergeCell ref="D286:P286"/>
+    <mergeCell ref="D288:P288"/>
+    <mergeCell ref="D289:P289"/>
     <mergeCell ref="D291:P291"/>
-    <mergeCell ref="D175:P175"/>
-    <mergeCell ref="D188:P188"/>
-    <mergeCell ref="D213:P213"/>
-    <mergeCell ref="D227:P227"/>
-    <mergeCell ref="D240:P240"/>
-    <mergeCell ref="D202:P202"/>
+    <mergeCell ref="D310:P310"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="D214:P214"/>
@@ -18754,32 +18812,16 @@
     <mergeCell ref="D200:P200"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D380:P380"/>
-    <mergeCell ref="D381:P381"/>
-    <mergeCell ref="D383:P383"/>
-    <mergeCell ref="D384:P384"/>
-    <mergeCell ref="D261:P261"/>
-    <mergeCell ref="D308:P308"/>
-    <mergeCell ref="D368:P368"/>
-    <mergeCell ref="D372:P372"/>
-    <mergeCell ref="D373:P373"/>
-    <mergeCell ref="D262:P262"/>
-    <mergeCell ref="D284:P284"/>
-    <mergeCell ref="D285:P285"/>
-    <mergeCell ref="D287:P287"/>
-    <mergeCell ref="D288:P288"/>
-    <mergeCell ref="D290:P290"/>
-    <mergeCell ref="D309:P309"/>
-    <mergeCell ref="D108:P108"/>
-    <mergeCell ref="D118:P118"/>
-    <mergeCell ref="D119:P119"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D53:P53"/>
-    <mergeCell ref="D77:P77"/>
-    <mergeCell ref="D95:P95"/>
-    <mergeCell ref="D96:P96"/>
-    <mergeCell ref="D98:P98"/>
-    <mergeCell ref="D99:P99"/>
+    <mergeCell ref="D344:P344"/>
+    <mergeCell ref="D345:P345"/>
+    <mergeCell ref="D355:P355"/>
+    <mergeCell ref="D292:P292"/>
+    <mergeCell ref="D175:P175"/>
+    <mergeCell ref="D188:P188"/>
+    <mergeCell ref="D213:P213"/>
+    <mergeCell ref="D228:P228"/>
+    <mergeCell ref="D241:P241"/>
+    <mergeCell ref="D202:P202"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:N1 M3:N1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -18788,13 +18830,13 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="O5" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O263" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O265" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O266:O267" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O270" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O264" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O268" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O269" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O264" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O266" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O267:O268" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O271" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O265" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O269" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O270" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="O6" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="O12:O14" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="O24:O25" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
@@ -18809,18 +18851,18 @@
     <hyperlink ref="O176:O185" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="O199" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="O201" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="O289" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="O290" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="O190" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="O191:O196" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="O203:O210" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="O215:O226" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="O286" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="O292:O307" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="O310:O340" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O345:O353" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="O355:O367" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="O369:O371" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="O374:O379" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O287" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O293:O308" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="O311:O341" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O346:O354" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="O356:O368" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O370:O372" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O375:O380" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="O75" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="O45" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="O46" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
@@ -18837,38 +18879,38 @@
     <hyperlink ref="O67" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="O68" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="O8" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="O272" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="O275" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="O273" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O274" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="O271" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="O273" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="O276" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O274" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O275" location="REG_006" display="R6 ou R7" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O272" location="REG_006" display="REG_006, REG_007, REG_008, REG_009, REG_010 ou REG_0011" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="O172:O174" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="O186:O187" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="O156:O157" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O238" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="O312" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="O229" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="O231" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O233" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="O239" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="O242" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="O246" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O248" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="O250" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="O252" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="O254" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O256" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="O258" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="O239" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="O313" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="O230" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="O232" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O234" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="O240" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="O243" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="O247" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O249" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="O251" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="O253" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="O255" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O257" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="O259" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="O73" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="O7" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="O211" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="O15" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="O93" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="O277" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="O279" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="O281" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="O283" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="O259" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="O278" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="O280" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="O282" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="O284" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="O260" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="O17:O19" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="O17" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="O18" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
@@ -18887,6 +18929,7 @@
     <hyperlink ref="O76" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="O94" location="REG_001" display="R1" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="O9" location="REG_001" display="R1" xr:uid="{52C3A583-E8F3-4C0F-98D5-5254EF494C4F}"/>
+    <hyperlink ref="O227" location="REG_002" display="REG_001 ET (REG_002 OU REG_003)" xr:uid="{365AEB1C-CA00-4510-8DDD-854C084B00AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18926,13 +18969,13 @@
       <c r="D1" s="47" t="s">
         <v>573</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="77" t="s">
         <v>574</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="47" t="s">
         <v>575</v>
       </c>
@@ -19685,11 +19728,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
@@ -19714,13 +19757,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="83" t="s">
         <v>606</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -19816,7 +19859,7 @@
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>599</v>
       </c>
@@ -19831,7 +19874,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>600</v>
       </c>
@@ -19846,7 +19889,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>602</v>
       </c>
@@ -19861,7 +19904,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>603</v>
       </c>
@@ -19876,7 +19919,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>608</v>
       </c>
@@ -19891,7 +19934,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>609</v>
       </c>
@@ -19906,7 +19949,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>611</v>
       </c>
@@ -19923,7 +19966,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>612</v>
       </c>
@@ -19938,7 +19981,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>621</v>
       </c>
@@ -19953,7 +19996,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>652</v>
       </c>
@@ -19970,7 +20013,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>629</v>
       </c>
@@ -19985,7 +20028,7 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>630</v>
       </c>
